--- a/Prediction based on convolutional neural network/code/NewModels1/worklog/填充方式与池化方式.xlsx
+++ b/Prediction based on convolutional neural network/code/NewModels1/worklog/填充方式与池化方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F752AF6-87CC-4EF0-BE54-F1B4B2E487C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{364B8EC0-94B1-46C4-B36D-C9D44754DD30}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="52">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -171,6 +171,62 @@
   </si>
   <si>
     <t>valid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q235b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到结果完全一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到的结果完全一样因为自己添加了L2正则项所以没有足够深度会出现很深的欠拟合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度不够，一开始就出现相当大欠拟合的情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512（这一层有很大的正则项）。提高了其正则化程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32（减少欠拟合程度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到的结果完全一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积核数量总体减少一半，速度加快一倍，欠拟合数据全部一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定次数之后训练集结果越来越好，但测试集结果越来越差，存在过拟合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适当加大卷积核的个数果然取得了比原先更好的结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到的结果完全一样，但是训练集和测试集结果loss结果很好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个模型到8000次还在网上上升</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +267,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +367,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -319,8 +424,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -328,8 +472,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -355,6 +514,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,11 +537,18 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="7" builtinId="26"/>
+    <cellStyle name="计算" xfId="6" builtinId="22"/>
+    <cellStyle name="链接单元格" xfId="3" builtinId="24"/>
+    <cellStyle name="输出" xfId="5" builtinId="21"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
     <cellStyle name="着色 2" xfId="2" builtinId="33"/>
+    <cellStyle name="着色 3" xfId="4" builtinId="37"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -646,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -660,38 +840,40 @@
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19.875" customWidth="1"/>
     <col min="13" max="13" width="17.875" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="17" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
     <col min="30" max="30" width="11.625" customWidth="1"/>
-    <col min="31" max="31" width="19.125" customWidth="1"/>
+    <col min="31" max="31" width="22.5" customWidth="1"/>
+    <col min="32" max="34" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:35" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
     </row>
-    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -745,27 +927,30 @@
       <c r="W2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="19" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
       <c r="AD2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="5"/>
       <c r="J3" t="s">
         <v>17</v>
@@ -821,8 +1006,17 @@
       <c r="AC3" t="s">
         <v>19</v>
       </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -913,11 +1107,11 @@
       <c r="AE4">
         <v>256</v>
       </c>
-      <c r="AF4">
+      <c r="AI4">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -936,6 +1130,15 @@
       <c r="I5">
         <v>3.47</v>
       </c>
+      <c r="J5">
+        <v>64</v>
+      </c>
+      <c r="K5">
+        <v>128</v>
+      </c>
+      <c r="L5">
+        <v>256</v>
+      </c>
       <c r="T5" t="s">
         <v>28</v>
       </c>
@@ -957,8 +1160,14 @@
       <c r="AD5" t="s">
         <v>32</v>
       </c>
+      <c r="AE5">
+        <v>256</v>
+      </c>
+      <c r="AI5">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -974,6 +1183,15 @@
       <c r="I6">
         <v>3.19</v>
       </c>
+      <c r="J6">
+        <v>64</v>
+      </c>
+      <c r="K6">
+        <v>128</v>
+      </c>
+      <c r="L6">
+        <v>256</v>
+      </c>
       <c r="T6" t="s">
         <v>33</v>
       </c>
@@ -995,8 +1213,14 @@
       <c r="AD6" t="s">
         <v>34</v>
       </c>
+      <c r="AE6">
+        <v>256</v>
+      </c>
+      <c r="AI6">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1012,6 +1236,15 @@
       <c r="I7">
         <v>3.22</v>
       </c>
+      <c r="J7">
+        <v>64</v>
+      </c>
+      <c r="K7">
+        <v>128</v>
+      </c>
+      <c r="L7">
+        <v>256</v>
+      </c>
       <c r="T7" t="s">
         <v>28</v>
       </c>
@@ -1032,6 +1265,1155 @@
       </c>
       <c r="AD7" t="s">
         <v>34</v>
+      </c>
+      <c r="AE7">
+        <v>256</v>
+      </c>
+      <c r="AI7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>0.23</v>
+      </c>
+      <c r="I8">
+        <v>0.85</v>
+      </c>
+      <c r="J8">
+        <v>64</v>
+      </c>
+      <c r="K8">
+        <v>128</v>
+      </c>
+      <c r="L8">
+        <v>256</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE8">
+        <v>256</v>
+      </c>
+      <c r="AI8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>0.01</v>
+      </c>
+      <c r="I9">
+        <v>0.38</v>
+      </c>
+      <c r="J9">
+        <v>64</v>
+      </c>
+      <c r="K9">
+        <v>128</v>
+      </c>
+      <c r="L9">
+        <v>256</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE9">
+        <v>256</v>
+      </c>
+      <c r="AI9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <v>64</v>
+      </c>
+      <c r="K10">
+        <v>128</v>
+      </c>
+      <c r="L10">
+        <v>256</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE10">
+        <v>256</v>
+      </c>
+      <c r="AI10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="28">
+        <v>700</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J11" s="28">
+        <v>64</v>
+      </c>
+      <c r="K11" s="28">
+        <v>128</v>
+      </c>
+      <c r="L11" s="28">
+        <v>256</v>
+      </c>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE11" s="28">
+        <v>256</v>
+      </c>
+      <c r="AI11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>64</v>
+      </c>
+      <c r="K12">
+        <v>128</v>
+      </c>
+      <c r="L12">
+        <v>256</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE12">
+        <v>256</v>
+      </c>
+      <c r="AF12">
+        <v>128</v>
+      </c>
+      <c r="AI12">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>64</v>
+      </c>
+      <c r="K13">
+        <v>128</v>
+      </c>
+      <c r="L13">
+        <v>256</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF13">
+        <v>256</v>
+      </c>
+      <c r="AG13">
+        <v>128</v>
+      </c>
+      <c r="AI13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>64</v>
+      </c>
+      <c r="K14">
+        <v>128</v>
+      </c>
+      <c r="L14">
+        <v>256</v>
+      </c>
+      <c r="Q14">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="R14">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="S14">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF14">
+        <v>256</v>
+      </c>
+      <c r="AG14">
+        <v>128</v>
+      </c>
+      <c r="AI14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>64</v>
+      </c>
+      <c r="L15">
+        <v>128</v>
+      </c>
+      <c r="Q15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE15">
+        <v>512</v>
+      </c>
+      <c r="AF15">
+        <v>256</v>
+      </c>
+      <c r="AG15">
+        <v>128</v>
+      </c>
+      <c r="AI15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <v>1800</v>
+      </c>
+      <c r="H16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.27</v>
+      </c>
+      <c r="J16">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>64</v>
+      </c>
+      <c r="L16">
+        <v>128</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE16">
+        <v>512</v>
+      </c>
+      <c r="AF16">
+        <v>256</v>
+      </c>
+      <c r="AG16">
+        <v>128</v>
+      </c>
+      <c r="AI16" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <v>3850</v>
+      </c>
+      <c r="H17">
+        <v>0.38</v>
+      </c>
+      <c r="I17">
+        <v>0.76</v>
+      </c>
+      <c r="J17" s="28">
+        <v>8</v>
+      </c>
+      <c r="K17" s="28">
+        <v>16</v>
+      </c>
+      <c r="L17" s="28">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE17">
+        <v>512</v>
+      </c>
+      <c r="AF17">
+        <v>256</v>
+      </c>
+      <c r="AG17">
+        <v>128</v>
+      </c>
+      <c r="AI17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="28">
+        <v>8</v>
+      </c>
+      <c r="K18" s="28">
+        <v>16</v>
+      </c>
+      <c r="L18" s="28">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R18" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S18" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE18">
+        <v>512</v>
+      </c>
+      <c r="AF18">
+        <v>256</v>
+      </c>
+      <c r="AG18">
+        <v>128</v>
+      </c>
+      <c r="AI18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>4850</v>
+      </c>
+      <c r="H19">
+        <v>0.26</v>
+      </c>
+      <c r="I19">
+        <v>0.59</v>
+      </c>
+      <c r="J19" s="28">
+        <v>8</v>
+      </c>
+      <c r="K19" s="28">
+        <v>16</v>
+      </c>
+      <c r="L19" s="28">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R19" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S19" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE19">
+        <v>512</v>
+      </c>
+      <c r="AF19">
+        <v>256</v>
+      </c>
+      <c r="AG19">
+        <v>128</v>
+      </c>
+      <c r="AI19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AJ19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>3900</v>
+      </c>
+      <c r="H20">
+        <v>0.42</v>
+      </c>
+      <c r="I20">
+        <v>1.07</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>32</v>
+      </c>
+      <c r="L20">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R20" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S20" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="V20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE20">
+        <v>512</v>
+      </c>
+      <c r="AF20">
+        <v>256</v>
+      </c>
+      <c r="AG20">
+        <v>128</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <v>32</v>
+      </c>
+      <c r="L21">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R21" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S21" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE21">
+        <v>512</v>
+      </c>
+      <c r="AF21">
+        <v>256</v>
+      </c>
+      <c r="AG21">
+        <v>128</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <v>4700</v>
+      </c>
+      <c r="H22">
+        <v>0.3</v>
+      </c>
+      <c r="I22">
+        <v>0.7</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>32</v>
+      </c>
+      <c r="L22">
+        <v>64</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R22" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="S22" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE22">
+        <v>512</v>
+      </c>
+      <c r="AF22">
+        <v>256</v>
+      </c>
+      <c r="AG22">
+        <v>128</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>32</v>
+      </c>
+      <c r="L23">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="24">
+        <v>0</v>
+      </c>
+      <c r="R23" s="24">
+        <v>0</v>
+      </c>
+      <c r="S23" s="24">
+        <v>0</v>
+      </c>
+      <c r="T23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE23">
+        <v>512</v>
+      </c>
+      <c r="AF23">
+        <v>256</v>
+      </c>
+      <c r="AG23">
+        <v>256</v>
+      </c>
+      <c r="AH23">
+        <v>128</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="28">
+        <v>21</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28">
+        <v>5650</v>
+      </c>
+      <c r="H24" s="28">
+        <v>0.67</v>
+      </c>
+      <c r="I24" s="28">
+        <v>1.32</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>32</v>
+      </c>
+      <c r="L24">
+        <v>64</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R24" s="24">
+        <v>0</v>
+      </c>
+      <c r="S24" s="24">
+        <v>0</v>
+      </c>
+      <c r="T24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE24">
+        <v>512</v>
+      </c>
+      <c r="AF24">
+        <v>256</v>
+      </c>
+      <c r="AG24">
+        <v>128</v>
+      </c>
+      <c r="AH24">
+        <v>64</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>64</v>
+      </c>
+      <c r="K25">
+        <v>128</v>
+      </c>
+      <c r="L25">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Prediction based on convolutional neural network/code/NewModels1/worklog/填充方式与池化方式.xlsx
+++ b/Prediction based on convolutional neural network/code/NewModels1/worklog/填充方式与池化方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{364B8EC0-94B1-46C4-B36D-C9D44754DD30}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B8D9A8B-5710-428E-91FD-BB07AB8A82BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="68">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,6 +227,70 @@
   </si>
   <si>
     <t>这个模型到8000次还在网上上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练集最好的R值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练集批次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q335b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型加大，过拟合现象更严重，次数更加多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q435b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000次后训练未正常启动！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方式1，增大卷积层神经元个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q136b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种问题其实究其原因时训练集上都不下降，学习遇到了鞍点，增大网络深度试一下，或者减小样本批次试一试（全连接层的深度十分关键）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q236b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q336b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q436b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练批次个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少训练批训练个数，例如256到128训练快一倍，使用128是为了跳出局部最优</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比于前一种，同期也取得了更好的结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四层</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +365,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,8 +455,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -463,8 +541,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -487,8 +580,11 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -528,6 +624,9 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="8" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,13 +636,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="7" builtinId="26"/>
     <cellStyle name="计算" xfId="6" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="8" builtinId="23"/>
     <cellStyle name="链接单元格" xfId="3" builtinId="24"/>
     <cellStyle name="输出" xfId="5" builtinId="21"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
@@ -826,166 +925,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q31" activeCellId="1" sqref="Q38 Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="13" max="13" width="17.875" customWidth="1"/>
-    <col min="17" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5" customWidth="1"/>
-    <col min="30" max="30" width="11.625" customWidth="1"/>
-    <col min="31" max="31" width="22.5" customWidth="1"/>
-    <col min="32" max="34" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="101.125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="10" max="12" width="19.875" customWidth="1"/>
+    <col min="17" max="17" width="17.875" customWidth="1"/>
+    <col min="21" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5" customWidth="1"/>
+    <col min="34" max="34" width="11.625" customWidth="1"/>
+    <col min="35" max="35" width="22.5" customWidth="1"/>
+    <col min="36" max="38" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:39" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
       <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14" t="s">
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="7" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="AB2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="27" t="s">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="15" t="s">
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="15" t="s">
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="16" t="s">
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="5"/>
-      <c r="J3" t="s">
+    <row r="3" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="5"/>
+      <c r="M3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>18</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>17</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>18</v>
       </c>
-      <c r="S3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>19</v>
       </c>
       <c r="X3" t="s">
@@ -997,1430 +1104,2163 @@
       <c r="Z3" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>19</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI3">
         <v>1</v>
       </c>
-      <c r="AF3">
+      <c r="AJ3">
         <v>2</v>
       </c>
-      <c r="AG3">
+      <c r="AK3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
+        <v>256</v>
+      </c>
+      <c r="D4">
         <v>0.1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>200</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1150</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.93</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.45</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>64</v>
       </c>
-      <c r="K4">
-        <v>128</v>
-      </c>
-      <c r="L4">
-        <v>256</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4">
+        <v>128</v>
+      </c>
+      <c r="O4">
+        <v>256</v>
+      </c>
+      <c r="Q4" t="s">
         <v>21</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="R4">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="S4">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="U4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" t="s">
         <v>23</v>
       </c>
-      <c r="X4">
+      <c r="AB4">
         <v>1</v>
       </c>
-      <c r="Y4">
+      <c r="AC4">
         <v>1</v>
       </c>
-      <c r="Z4">
+      <c r="AD4">
         <v>1</v>
       </c>
-      <c r="AA4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH4" t="s">
         <v>24</v>
       </c>
-      <c r="AE4">
-        <v>256</v>
-      </c>
       <c r="AI4">
+        <v>256</v>
+      </c>
+      <c r="AM4">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5">
+        <v>256</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3600</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.92</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.47</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>64</v>
       </c>
-      <c r="K5">
-        <v>128</v>
-      </c>
-      <c r="L5">
-        <v>256</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="N5">
+        <v>128</v>
+      </c>
+      <c r="O5">
+        <v>256</v>
+      </c>
+      <c r="X5" t="s">
         <v>28</v>
       </c>
-      <c r="U5" t="s">
+      <c r="Y5" t="s">
         <v>28</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Z5" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AE5" t="s">
         <v>28</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>28</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AH5" t="s">
         <v>32</v>
       </c>
-      <c r="AE5">
-        <v>256</v>
-      </c>
       <c r="AI5">
+        <v>256</v>
+      </c>
+      <c r="AM5">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6">
+        <v>256</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3850</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.91</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.19</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>64</v>
       </c>
-      <c r="K6">
-        <v>128</v>
-      </c>
-      <c r="L6">
-        <v>256</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="N6">
+        <v>128</v>
+      </c>
+      <c r="O6">
+        <v>256</v>
+      </c>
+      <c r="X6" t="s">
         <v>33</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Y6" t="s">
         <v>33</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Z6" t="s">
         <v>33</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AE6" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>33</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AH6" t="s">
         <v>34</v>
       </c>
-      <c r="AE6">
-        <v>256</v>
-      </c>
       <c r="AI6">
+        <v>256</v>
+      </c>
+      <c r="AM6">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7">
+        <v>256</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4050</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.9</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3.22</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>64</v>
       </c>
-      <c r="K7">
-        <v>128</v>
-      </c>
-      <c r="L7">
-        <v>256</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="N7">
+        <v>128</v>
+      </c>
+      <c r="O7">
+        <v>256</v>
+      </c>
+      <c r="X7" t="s">
         <v>28</v>
       </c>
-      <c r="U7" t="s">
+      <c r="Y7" t="s">
         <v>36</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Z7" t="s">
         <v>37</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AE7" t="s">
         <v>36</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>36</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AH7" t="s">
         <v>34</v>
       </c>
-      <c r="AE7">
-        <v>256</v>
-      </c>
       <c r="AI7">
+        <v>256</v>
+      </c>
+      <c r="AM7">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8">
+        <v>256</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.23</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.85</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>64</v>
       </c>
-      <c r="K8">
-        <v>128</v>
-      </c>
-      <c r="L8">
-        <v>256</v>
-      </c>
-      <c r="T8" s="19" t="s">
+      <c r="N8">
+        <v>128</v>
+      </c>
+      <c r="O8">
+        <v>256</v>
+      </c>
+      <c r="X8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="Y8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="V8" s="19" t="s">
+      <c r="Z8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19" t="s">
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AB8" s="19" t="s">
+      <c r="AF8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AC8" s="19" t="s">
+      <c r="AG8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AD8" s="19" t="s">
+      <c r="AH8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AE8">
-        <v>256</v>
-      </c>
       <c r="AI8">
+        <v>256</v>
+      </c>
+      <c r="AM8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C9">
+        <v>256</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.01</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.38</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>64</v>
       </c>
-      <c r="K9">
-        <v>128</v>
-      </c>
-      <c r="L9">
-        <v>256</v>
-      </c>
-      <c r="T9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="20" t="s">
+      <c r="N9">
+        <v>128</v>
+      </c>
+      <c r="O9">
+        <v>256</v>
+      </c>
+      <c r="X9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AE9">
-        <v>256</v>
-      </c>
       <c r="AI9">
+        <v>256</v>
+      </c>
+      <c r="AM9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10">
+        <v>256</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>40</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>64</v>
       </c>
-      <c r="K10">
-        <v>128</v>
-      </c>
-      <c r="L10">
-        <v>256</v>
-      </c>
-      <c r="T10" s="20" t="s">
+      <c r="N10">
+        <v>128</v>
+      </c>
+      <c r="O10">
+        <v>256</v>
+      </c>
+      <c r="X10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="Y10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="V10" s="20" t="s">
+      <c r="Z10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20" t="s">
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AB10" s="20" t="s">
+      <c r="AF10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AG10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AD10" s="20" t="s">
+      <c r="AH10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AE10">
-        <v>256</v>
-      </c>
       <c r="AI10">
+        <v>256</v>
+      </c>
+      <c r="AM10">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C11">
+        <v>256</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="28">
+      <c r="H11" s="25">
         <v>700</v>
       </c>
-      <c r="H11" s="28">
+      <c r="I11" s="25">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I11" s="28">
+      <c r="J11" s="25">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J11" s="28">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25">
         <v>64</v>
       </c>
-      <c r="K11" s="28">
-        <v>128</v>
-      </c>
-      <c r="L11" s="28">
-        <v>256</v>
-      </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="U11" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="V11" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB11" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC11" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD11" s="29" t="s">
+      <c r="N11" s="25">
+        <v>128</v>
+      </c>
+      <c r="O11" s="25">
+        <v>256</v>
+      </c>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AE11" s="28">
-        <v>256</v>
-      </c>
-      <c r="AI11">
+      <c r="AI11" s="25">
+        <v>256</v>
+      </c>
+      <c r="AM11">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C12">
+        <v>256</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>64</v>
       </c>
-      <c r="K12">
-        <v>128</v>
-      </c>
-      <c r="L12">
-        <v>256</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD12" s="19" t="s">
+      <c r="N12">
+        <v>128</v>
+      </c>
+      <c r="O12">
+        <v>256</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AE12">
-        <v>256</v>
-      </c>
-      <c r="AF12">
-        <v>128</v>
-      </c>
       <c r="AI12">
+        <v>256</v>
+      </c>
+      <c r="AJ12">
+        <v>128</v>
+      </c>
+      <c r="AM12">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C13">
+        <v>256</v>
+      </c>
+      <c r="F13" t="s">
         <v>38</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>64</v>
       </c>
-      <c r="K13">
-        <v>128</v>
-      </c>
-      <c r="L13">
-        <v>256</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="U13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD13" s="19" t="s">
+      <c r="N13">
+        <v>128</v>
+      </c>
+      <c r="O13">
+        <v>256</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AI13" t="s">
         <v>43</v>
       </c>
-      <c r="AF13">
-        <v>256</v>
-      </c>
-      <c r="AG13">
-        <v>128</v>
-      </c>
-      <c r="AI13">
+      <c r="AJ13">
+        <v>256</v>
+      </c>
+      <c r="AK13">
+        <v>128</v>
+      </c>
+      <c r="AM13">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C14">
+        <v>256</v>
+      </c>
+      <c r="F14" t="s">
         <v>38</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>64</v>
       </c>
-      <c r="K14">
-        <v>128</v>
-      </c>
-      <c r="L14">
-        <v>256</v>
-      </c>
-      <c r="Q14">
+      <c r="N14">
+        <v>128</v>
+      </c>
+      <c r="O14">
+        <v>256</v>
+      </c>
+      <c r="U14">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="R14">
+      <c r="V14">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="S14">
+      <c r="W14">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="T14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="U14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD14" s="19" t="s">
+      <c r="X14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AI14" t="s">
         <v>44</v>
       </c>
-      <c r="AF14">
-        <v>256</v>
-      </c>
-      <c r="AG14">
-        <v>128</v>
-      </c>
-      <c r="AI14">
+      <c r="AJ14">
+        <v>256</v>
+      </c>
+      <c r="AK14">
+        <v>128</v>
+      </c>
+      <c r="AM14">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C15">
+        <v>256</v>
+      </c>
+      <c r="F15" t="s">
         <v>38</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>32</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>64</v>
       </c>
-      <c r="L15">
-        <v>128</v>
-      </c>
-      <c r="Q15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="R15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="S15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="U15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD15" s="19" t="s">
+      <c r="O15">
+        <v>128</v>
+      </c>
+      <c r="U15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AE15">
+      <c r="AI15">
         <v>512</v>
       </c>
-      <c r="AF15">
-        <v>256</v>
-      </c>
-      <c r="AG15">
-        <v>128</v>
-      </c>
-      <c r="AI15">
+      <c r="AJ15">
+        <v>256</v>
+      </c>
+      <c r="AK15">
+        <v>128</v>
+      </c>
+      <c r="AM15">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C16">
+        <v>256</v>
+      </c>
+      <c r="F16" t="s">
         <v>38</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1800</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.3E-2</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.27</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>32</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>64</v>
       </c>
-      <c r="L16">
-        <v>128</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD16" s="19" t="s">
+      <c r="O16">
+        <v>128</v>
+      </c>
+      <c r="U16" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AE16">
+      <c r="AI16" s="19">
         <v>512</v>
       </c>
-      <c r="AF16">
-        <v>256</v>
-      </c>
-      <c r="AG16">
-        <v>128</v>
-      </c>
-      <c r="AI16" s="23">
+      <c r="AJ16" s="19">
+        <v>256</v>
+      </c>
+      <c r="AK16" s="19">
+        <v>128</v>
+      </c>
+      <c r="AM16" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C17">
+        <v>256</v>
+      </c>
+      <c r="F17" t="s">
         <v>38</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3850</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.38</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.76</v>
       </c>
-      <c r="J17" s="28">
+      <c r="M17" s="25">
         <v>8</v>
       </c>
-      <c r="K17" s="28">
+      <c r="N17" s="25">
         <v>16</v>
       </c>
-      <c r="L17" s="28">
+      <c r="O17" s="25">
         <v>32</v>
       </c>
-      <c r="Q17" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD17" s="19" t="s">
+      <c r="P17" s="25"/>
+      <c r="U17" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AE17">
+      <c r="AI17" s="19">
         <v>512</v>
       </c>
-      <c r="AF17">
-        <v>256</v>
-      </c>
-      <c r="AG17">
-        <v>128</v>
-      </c>
-      <c r="AI17" s="23">
+      <c r="AJ17" s="19">
+        <v>256</v>
+      </c>
+      <c r="AK17" s="19">
+        <v>128</v>
+      </c>
+      <c r="AM17" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C18">
+        <v>256</v>
+      </c>
+      <c r="F18" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="28">
+      <c r="M18" s="25">
         <v>8</v>
       </c>
-      <c r="K18" s="28">
+      <c r="N18" s="25">
         <v>16</v>
       </c>
-      <c r="L18" s="28">
+      <c r="O18" s="25">
         <v>32</v>
       </c>
-      <c r="Q18" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="R18" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="S18" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD18" s="19" t="s">
+      <c r="P18" s="25"/>
+      <c r="U18" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V18" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W18" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AE18">
+      <c r="AI18" s="19">
         <v>512</v>
       </c>
-      <c r="AF18">
-        <v>256</v>
-      </c>
-      <c r="AG18">
-        <v>128</v>
-      </c>
-      <c r="AI18" s="19">
+      <c r="AJ18" s="19">
+        <v>256</v>
+      </c>
+      <c r="AK18" s="19">
+        <v>128</v>
+      </c>
+      <c r="AM18" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C19">
+        <v>256</v>
+      </c>
+      <c r="F19" t="s">
         <v>38</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>4850</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.26</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.59</v>
       </c>
-      <c r="J19" s="28">
+      <c r="M19" s="25">
         <v>8</v>
       </c>
-      <c r="K19" s="28">
+      <c r="N19" s="25">
         <v>16</v>
       </c>
-      <c r="L19" s="28">
+      <c r="O19" s="25">
         <v>32</v>
       </c>
-      <c r="Q19" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="R19" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="S19" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="U19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD19" s="19" t="s">
+      <c r="P19" s="25"/>
+      <c r="U19" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V19" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W19" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AE19">
+      <c r="AI19">
         <v>512</v>
       </c>
-      <c r="AF19">
-        <v>256</v>
-      </c>
-      <c r="AG19">
-        <v>128</v>
-      </c>
-      <c r="AI19">
-        <v>1.0000000000000001E-5</v>
-      </c>
       <c r="AJ19">
+        <v>256</v>
+      </c>
+      <c r="AK19">
+        <v>128</v>
+      </c>
+      <c r="AM19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AN19">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C20">
+        <v>256</v>
+      </c>
+      <c r="F20" t="s">
         <v>38</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3900</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.42</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1.07</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>16</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>32</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>64</v>
       </c>
-      <c r="Q20" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="R20" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="S20" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="V20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD20" s="22" t="s">
+      <c r="U20" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V20" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W20" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AE20">
+      <c r="AI20">
         <v>512</v>
       </c>
-      <c r="AF20">
-        <v>256</v>
-      </c>
-      <c r="AG20">
-        <v>128</v>
-      </c>
-      <c r="AI20">
+      <c r="AJ20">
+        <v>256</v>
+      </c>
+      <c r="AK20">
+        <v>128</v>
+      </c>
+      <c r="AM20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C21">
+        <v>256</v>
+      </c>
+      <c r="F21" t="s">
         <v>38</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>16</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>32</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>64</v>
       </c>
-      <c r="Q21" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="R21" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="S21" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T21" s="22" t="s">
+      <c r="U21" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V21" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W21" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U21" s="22" t="s">
+      <c r="Y21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="V21" s="22" t="s">
+      <c r="Z21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22" t="s">
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AB21" s="22" t="s">
+      <c r="AF21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AC21" s="22" t="s">
+      <c r="AG21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AD21" s="22" t="s">
+      <c r="AH21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AE21">
+      <c r="AI21">
         <v>512</v>
       </c>
-      <c r="AF21">
-        <v>256</v>
-      </c>
-      <c r="AG21">
-        <v>128</v>
-      </c>
-      <c r="AI21">
+      <c r="AJ21">
+        <v>256</v>
+      </c>
+      <c r="AK21">
+        <v>128</v>
+      </c>
+      <c r="AM21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
       <c r="B22">
         <v>19</v>
       </c>
-      <c r="E22" t="s">
+      <c r="C22">
+        <v>256</v>
+      </c>
+      <c r="F22" t="s">
         <v>38</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4700</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.3</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.7</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>16</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>32</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>64</v>
       </c>
-      <c r="Q22" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="R22" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="S22" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="T22" s="22" t="s">
+      <c r="U22" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V22" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W22" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U22" s="22" t="s">
+      <c r="Y22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="V22" s="22" t="s">
+      <c r="Z22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22" t="s">
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AB22" s="22" t="s">
+      <c r="AF22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AC22" s="22" t="s">
+      <c r="AG22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AD22" s="22" t="s">
+      <c r="AH22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AE22">
+      <c r="AI22">
         <v>512</v>
       </c>
-      <c r="AF22">
-        <v>256</v>
-      </c>
-      <c r="AG22">
-        <v>128</v>
-      </c>
-      <c r="AI22">
+      <c r="AJ22">
+        <v>256</v>
+      </c>
+      <c r="AK22">
+        <v>128</v>
+      </c>
+      <c r="AM22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C23">
+        <v>256</v>
+      </c>
+      <c r="F23" t="s">
         <v>38</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>49</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>16</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>32</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>64</v>
       </c>
-      <c r="Q23" s="24">
-        <v>0</v>
-      </c>
-      <c r="R23" s="24">
-        <v>0</v>
-      </c>
-      <c r="S23" s="24">
-        <v>0</v>
-      </c>
-      <c r="T23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="U23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="V23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD23" s="23" t="s">
+      <c r="U23" s="24">
+        <v>0</v>
+      </c>
+      <c r="V23" s="24">
+        <v>0</v>
+      </c>
+      <c r="W23" s="24">
+        <v>0</v>
+      </c>
+      <c r="X23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AE23">
+      <c r="AI23">
         <v>512</v>
       </c>
-      <c r="AF23">
-        <v>256</v>
-      </c>
-      <c r="AG23">
-        <v>256</v>
-      </c>
-      <c r="AH23">
-        <v>128</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
       <c r="AJ23">
-        <v>1.0000000000000001E-5</v>
+        <v>256</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="AL23">
+        <v>128</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="25">
         <v>21</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28" t="s">
+      <c r="C24">
+        <v>256</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28">
+      <c r="G24" s="25"/>
+      <c r="H24" s="25">
         <v>5650</v>
       </c>
-      <c r="H24" s="28">
+      <c r="I24" s="25">
         <v>0.67</v>
       </c>
-      <c r="I24" s="28">
+      <c r="J24" s="25">
         <v>1.32</v>
       </c>
-      <c r="J24">
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24">
         <v>16</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>32</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>64</v>
       </c>
-      <c r="Q24" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="R24" s="24">
-        <v>0</v>
-      </c>
-      <c r="S24" s="24">
-        <v>0</v>
-      </c>
-      <c r="T24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="U24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="V24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD24" s="23" t="s">
+      <c r="U24" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V24" s="24">
+        <v>0</v>
+      </c>
+      <c r="W24" s="24">
+        <v>0</v>
+      </c>
+      <c r="X24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AE24">
+      <c r="AI24">
         <v>512</v>
       </c>
-      <c r="AF24">
-        <v>256</v>
-      </c>
-      <c r="AG24">
-        <v>128</v>
-      </c>
-      <c r="AH24">
+      <c r="AJ24">
+        <v>256</v>
+      </c>
+      <c r="AK24">
+        <v>128</v>
+      </c>
+      <c r="AL24">
         <v>64</v>
       </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>256</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25">
+        <v>200</v>
+      </c>
+      <c r="H25">
+        <v>5200</v>
+      </c>
+      <c r="I25">
+        <v>0.61</v>
+      </c>
       <c r="J25">
+        <v>1.27</v>
+      </c>
+      <c r="K25">
+        <v>0.82</v>
+      </c>
+      <c r="L25">
+        <v>6750</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>16</v>
+      </c>
+      <c r="O25">
+        <v>32</v>
+      </c>
+      <c r="U25" s="24">
+        <v>0</v>
+      </c>
+      <c r="V25" s="24">
+        <v>0</v>
+      </c>
+      <c r="W25" s="24">
+        <v>0</v>
+      </c>
+      <c r="X25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI25">
+        <v>32</v>
+      </c>
+      <c r="AJ25">
+        <v>32</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>256</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26">
+        <v>200</v>
+      </c>
+      <c r="H26">
+        <v>7900</v>
+      </c>
+      <c r="I26">
+        <v>0.48</v>
+      </c>
+      <c r="J26">
+        <v>1.34</v>
+      </c>
+      <c r="K26">
+        <v>0.83</v>
+      </c>
+      <c r="L26">
+        <v>7800</v>
+      </c>
+      <c r="M26">
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <v>16</v>
+      </c>
+      <c r="O26">
+        <v>32</v>
+      </c>
+      <c r="U26" s="24">
+        <v>0</v>
+      </c>
+      <c r="V26" s="24">
+        <v>0</v>
+      </c>
+      <c r="W26" s="24">
+        <v>0</v>
+      </c>
+      <c r="X26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH26" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI26">
         <v>64</v>
       </c>
-      <c r="K25">
-        <v>128</v>
-      </c>
-      <c r="L25">
-        <v>256</v>
+      <c r="AJ26">
+        <v>64</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>256</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="I27">
+        <v>0.02</v>
+      </c>
+      <c r="K27">
+        <v>0.03</v>
+      </c>
+      <c r="M27" s="27">
+        <v>8</v>
+      </c>
+      <c r="N27" s="27">
+        <v>16</v>
+      </c>
+      <c r="O27" s="27">
+        <v>32</v>
+      </c>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27">
+        <v>0</v>
+      </c>
+      <c r="V27" s="27">
+        <v>0</v>
+      </c>
+      <c r="W27" s="27">
+        <v>0</v>
+      </c>
+      <c r="X27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH27" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI27" s="27">
+        <v>128</v>
+      </c>
+      <c r="AJ27" s="27">
+        <v>128</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>256</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="27">
+        <v>16</v>
+      </c>
+      <c r="N28" s="27">
+        <v>32</v>
+      </c>
+      <c r="O28" s="27">
+        <v>64</v>
+      </c>
+      <c r="P28" s="27"/>
+      <c r="U28" s="24">
+        <v>0</v>
+      </c>
+      <c r="V28" s="24">
+        <v>0</v>
+      </c>
+      <c r="W28" s="24">
+        <v>0</v>
+      </c>
+      <c r="X28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH28" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI28">
+        <v>128</v>
+      </c>
+      <c r="AJ28">
+        <v>128</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>256</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29">
+        <v>200</v>
+      </c>
+      <c r="H29">
+        <v>11000</v>
+      </c>
+      <c r="I29">
+        <v>0.72</v>
+      </c>
+      <c r="J29">
+        <v>1.77</v>
+      </c>
+      <c r="K29">
+        <v>0.92</v>
+      </c>
+      <c r="L29">
+        <v>14800</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>16</v>
+      </c>
+      <c r="O29">
+        <v>32</v>
+      </c>
+      <c r="U29" s="24">
+        <v>0</v>
+      </c>
+      <c r="V29" s="24">
+        <v>0</v>
+      </c>
+      <c r="W29" s="24">
+        <v>0</v>
+      </c>
+      <c r="X29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH29" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI29">
+        <v>128</v>
+      </c>
+      <c r="AJ29">
+        <v>128</v>
+      </c>
+      <c r="AK29">
+        <v>128</v>
+      </c>
+      <c r="AL29">
+        <v>64</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>128</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30">
+        <v>200</v>
+      </c>
+      <c r="H30">
+        <v>14250</v>
+      </c>
+      <c r="I30">
+        <v>0.72</v>
+      </c>
+      <c r="J30">
+        <v>1.34</v>
+      </c>
+      <c r="K30">
+        <v>0.88</v>
+      </c>
+      <c r="L30">
+        <v>14900</v>
+      </c>
+      <c r="M30">
+        <v>8</v>
+      </c>
+      <c r="N30">
+        <v>16</v>
+      </c>
+      <c r="O30">
+        <v>32</v>
+      </c>
+      <c r="U30" s="24">
+        <v>0</v>
+      </c>
+      <c r="V30" s="24">
+        <v>0</v>
+      </c>
+      <c r="W30" s="24">
+        <v>0</v>
+      </c>
+      <c r="X30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI30">
+        <v>128</v>
+      </c>
+      <c r="AJ30">
+        <v>128</v>
+      </c>
+      <c r="AK30">
+        <v>128</v>
+      </c>
+      <c r="AL30">
+        <v>64</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>128</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31">
+        <v>200</v>
+      </c>
+      <c r="H31">
+        <v>26300</v>
+      </c>
+      <c r="I31">
+        <v>0.82</v>
+      </c>
+      <c r="J31">
+        <v>1.45</v>
+      </c>
+      <c r="K31">
+        <v>0.93</v>
+      </c>
+      <c r="L31">
+        <v>25000</v>
+      </c>
+      <c r="M31">
+        <v>16</v>
+      </c>
+      <c r="N31">
+        <v>32</v>
+      </c>
+      <c r="O31">
+        <v>64</v>
+      </c>
+      <c r="U31" s="24">
+        <v>0</v>
+      </c>
+      <c r="V31" s="24">
+        <v>0</v>
+      </c>
+      <c r="W31" s="24">
+        <v>0</v>
+      </c>
+      <c r="X31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI31">
+        <v>128</v>
+      </c>
+      <c r="AJ31">
+        <v>128</v>
+      </c>
+      <c r="AK31">
+        <v>128</v>
+      </c>
+      <c r="AL31">
+        <v>64</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>128</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32">
+        <v>200</v>
+      </c>
+      <c r="M32">
+        <v>32</v>
+      </c>
+      <c r="N32">
+        <v>64</v>
+      </c>
+      <c r="O32">
+        <v>128</v>
+      </c>
+      <c r="P32">
+        <v>128</v>
+      </c>
+      <c r="U32" s="24">
+        <v>0</v>
+      </c>
+      <c r="V32" s="24">
+        <v>0</v>
+      </c>
+      <c r="W32" s="24">
+        <v>0</v>
+      </c>
+      <c r="X32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH32" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI32">
+        <v>128</v>
+      </c>
+      <c r="AJ32">
+        <v>128</v>
+      </c>
+      <c r="AK32">
+        <v>128</v>
+      </c>
+      <c r="AL32">
+        <v>64</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prediction based on convolutional neural network/code/NewModels1/worklog/填充方式与池化方式.xlsx
+++ b/Prediction based on convolutional neural network/code/NewModels1/worklog/填充方式与池化方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B8D9A8B-5710-428E-91FD-BB07AB8A82BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E3F7AF7-85E2-496F-8D22-4742B968C030}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="76">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -291,6 +291,38 @@
   </si>
   <si>
     <t>第四层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q137b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比于前一种，速度减慢了一半</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q237b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入正则化使测试集和训练集更加接近，但是，这样做的后果是其R值一直在0以下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q337b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有值都一样</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +401,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -557,7 +597,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -583,8 +623,11 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -627,6 +670,8 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,13 +681,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="7" builtinId="26"/>
     <cellStyle name="计算" xfId="6" builtinId="22"/>
     <cellStyle name="检查单元格" xfId="8" builtinId="23"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
     <cellStyle name="链接单元格" xfId="3" builtinId="24"/>
     <cellStyle name="输出" xfId="5" builtinId="21"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
@@ -925,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP33"/>
+  <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q31" activeCellId="1" sqref="Q38 Q31"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -938,45 +984,48 @@
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="21.375" customWidth="1"/>
     <col min="10" max="12" width="19.875" customWidth="1"/>
-    <col min="17" max="17" width="17.875" customWidth="1"/>
-    <col min="21" max="22" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5" customWidth="1"/>
-    <col min="34" max="34" width="11.625" customWidth="1"/>
-    <col min="35" max="35" width="22.5" customWidth="1"/>
-    <col min="36" max="38" width="19.125" customWidth="1"/>
+    <col min="18" max="18" width="17.875" customWidth="1"/>
+    <col min="22" max="23" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="21.5" customWidth="1"/>
+    <col min="37" max="37" width="11.625" customWidth="1"/>
+    <col min="38" max="38" width="22.5" customWidth="1"/>
+    <col min="39" max="41" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="6"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1018,52 +1067,55 @@
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="13"/>
       <c r="T2" s="13"/>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="13"/>
+      <c r="V2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="14"/>
       <c r="W2" s="14"/>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AE2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="30" t="s">
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="15" t="s">
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="15" t="s">
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="16" t="s">
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H3" s="5"/>
       <c r="M3" t="s">
         <v>17</v>
@@ -1077,40 +1129,34 @@
       <c r="P3" t="s">
         <v>67</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>18</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>19</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>17</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>18</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>19</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>17</v>
-      </c>
       <c r="AC3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD3" t="s">
         <v>19</v>
       </c>
       <c r="AE3" t="s">
@@ -1122,17 +1168,26 @@
       <c r="AG3" t="s">
         <v>19</v>
       </c>
-      <c r="AI3">
+      <c r="AH3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL3">
         <v>1</v>
       </c>
-      <c r="AJ3">
+      <c r="AM3">
         <v>2</v>
       </c>
-      <c r="AK3">
+      <c r="AN3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1169,11 +1224,8 @@
       <c r="O4">
         <v>256</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>21</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1182,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>1.0000000000000001E-5</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>1.0000000000000001E-5</v>
@@ -1190,47 +1242,50 @@
       <c r="W4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>22</v>
+      <c r="X4">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AA4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" t="s">
         <v>23</v>
       </c>
-      <c r="AB4">
+      <c r="AE4">
         <v>1</v>
       </c>
-      <c r="AC4">
+      <c r="AF4">
         <v>1</v>
       </c>
-      <c r="AD4">
+      <c r="AG4">
         <v>1</v>
       </c>
-      <c r="AE4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>22</v>
-      </c>
       <c r="AH4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK4" t="s">
         <v>24</v>
       </c>
-      <c r="AI4">
-        <v>256</v>
-      </c>
-      <c r="AM4">
+      <c r="AL4">
+        <v>256</v>
+      </c>
+      <c r="AP4">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1261,35 +1316,35 @@
       <c r="O5">
         <v>256</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AB5" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AC5" t="s">
         <v>28</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
         <v>28</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AI5" t="s">
         <v>28</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
         <v>28</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AK5" t="s">
         <v>32</v>
       </c>
-      <c r="AI5">
-        <v>256</v>
-      </c>
-      <c r="AM5">
+      <c r="AL5">
+        <v>256</v>
+      </c>
+      <c r="AP5">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1317,35 +1372,35 @@
       <c r="O6">
         <v>256</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>33</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AB6" t="s">
         <v>33</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AC6" t="s">
         <v>33</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
         <v>33</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AI6" t="s">
         <v>33</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
         <v>33</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AK6" t="s">
         <v>34</v>
       </c>
-      <c r="AI6">
-        <v>256</v>
-      </c>
-      <c r="AM6">
+      <c r="AL6">
+        <v>256</v>
+      </c>
+      <c r="AP6">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1373,35 +1428,35 @@
       <c r="O7">
         <v>256</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AB7" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AC7" t="s">
         <v>37</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AH7" t="s">
         <v>36</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AI7" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
         <v>36</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AK7" t="s">
         <v>34</v>
       </c>
-      <c r="AI7">
-        <v>256</v>
-      </c>
-      <c r="AM7">
+      <c r="AL7">
+        <v>256</v>
+      </c>
+      <c r="AP7">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1426,39 +1481,39 @@
       <c r="O8">
         <v>256</v>
       </c>
-      <c r="X8" s="19" t="s">
+      <c r="AA8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Y8" s="19" t="s">
+      <c r="AB8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" s="19" t="s">
+      <c r="AC8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
-      <c r="AE8" s="19" t="s">
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AF8" s="19" t="s">
+      <c r="AI8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AG8" s="19" t="s">
+      <c r="AJ8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AH8" s="19" t="s">
+      <c r="AK8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AI8">
-        <v>256</v>
-      </c>
-      <c r="AM8">
+      <c r="AL8">
+        <v>256</v>
+      </c>
+      <c r="AP8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1483,39 +1538,39 @@
       <c r="O9">
         <v>256</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
+      <c r="AA9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC9" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="AD9" s="20"/>
-      <c r="AE9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG9" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
       <c r="AH9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AI9">
-        <v>256</v>
-      </c>
-      <c r="AM9">
+      <c r="AL9">
+        <v>256</v>
+      </c>
+      <c r="AP9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1540,39 +1595,39 @@
       <c r="O10">
         <v>256</v>
       </c>
-      <c r="X10" s="20" t="s">
+      <c r="AA10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="AB10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Z10" s="20" t="s">
+      <c r="AC10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AE10" s="20" t="s">
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AF10" s="20" t="s">
+      <c r="AI10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AJ10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AH10" s="20" t="s">
+      <c r="AK10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AI10">
-        <v>256</v>
-      </c>
-      <c r="AM10">
+      <c r="AL10">
+        <v>256</v>
+      </c>
+      <c r="AP10">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1610,39 +1665,42 @@
       <c r="U11" s="25"/>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
-      <c r="X11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="AD11" s="26"/>
-      <c r="AE11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG11" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
       <c r="AH11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AI11" s="25">
-        <v>256</v>
-      </c>
-      <c r="AM11">
+      <c r="AL11" s="25">
+        <v>256</v>
+      </c>
+      <c r="AP11">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1664,42 +1722,42 @@
       <c r="O12">
         <v>256</v>
       </c>
-      <c r="X12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
+      <c r="AA12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC12" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AD12" s="19"/>
-      <c r="AE12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG12" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
       <c r="AH12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AI12">
-        <v>256</v>
-      </c>
-      <c r="AJ12">
-        <v>128</v>
+      <c r="AL12">
+        <v>256</v>
       </c>
       <c r="AM12">
+        <v>128</v>
+      </c>
+      <c r="AP12">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1721,45 +1779,45 @@
       <c r="O13">
         <v>256</v>
       </c>
-      <c r="X13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
+      <c r="AA13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC13" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AD13" s="19"/>
-      <c r="AE13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG13" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
       <c r="AH13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AL13" t="s">
         <v>43</v>
       </c>
-      <c r="AJ13">
-        <v>256</v>
-      </c>
-      <c r="AK13">
-        <v>128</v>
-      </c>
       <c r="AM13">
+        <v>256</v>
+      </c>
+      <c r="AN13">
+        <v>128</v>
+      </c>
+      <c r="AP13">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1781,54 +1839,54 @@
       <c r="O14">
         <v>256</v>
       </c>
-      <c r="U14">
-        <v>5.0000000000000004E-6</v>
-      </c>
       <c r="V14">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="W14">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="X14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
+      <c r="X14">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="AA14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC14" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AD14" s="19"/>
-      <c r="AE14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG14" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
       <c r="AH14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AL14" t="s">
         <v>44</v>
       </c>
-      <c r="AJ14">
-        <v>256</v>
-      </c>
-      <c r="AK14">
-        <v>128</v>
-      </c>
       <c r="AM14">
+        <v>256</v>
+      </c>
+      <c r="AN14">
+        <v>128</v>
+      </c>
+      <c r="AP14">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1850,54 +1908,54 @@
       <c r="O15">
         <v>128</v>
       </c>
-      <c r="U15">
-        <v>1.0000000000000001E-5</v>
-      </c>
       <c r="V15">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="W15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
+      <c r="X15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC15" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AD15" s="19"/>
-      <c r="AE15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG15" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
       <c r="AH15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AI15">
+      <c r="AL15">
         <v>512</v>
       </c>
-      <c r="AJ15">
-        <v>256</v>
-      </c>
-      <c r="AK15">
-        <v>128</v>
-      </c>
       <c r="AM15">
+        <v>256</v>
+      </c>
+      <c r="AN15">
+        <v>128</v>
+      </c>
+      <c r="AP15">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1928,48 +1986,48 @@
       <c r="O16">
         <v>128</v>
       </c>
-      <c r="U16" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
+      <c r="V16" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC16" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AD16" s="19"/>
-      <c r="AE16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG16" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
       <c r="AH16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AI16" s="19">
+      <c r="AL16" s="19">
         <v>512</v>
       </c>
-      <c r="AJ16" s="19">
-        <v>256</v>
-      </c>
-      <c r="AK16" s="19">
-        <v>128</v>
-      </c>
-      <c r="AM16" s="23">
+      <c r="AM16" s="19">
+        <v>256</v>
+      </c>
+      <c r="AN16" s="19">
+        <v>128</v>
+      </c>
+      <c r="AP16" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2001,48 +2059,49 @@
         <v>32</v>
       </c>
       <c r="P17" s="25"/>
-      <c r="U17" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="X17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
+      <c r="Q17" s="25"/>
+      <c r="V17" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC17" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AD17" s="19"/>
-      <c r="AE17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG17" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
       <c r="AH17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AI17" s="19">
+      <c r="AL17" s="19">
         <v>512</v>
       </c>
-      <c r="AJ17" s="19">
-        <v>256</v>
-      </c>
-      <c r="AK17" s="19">
-        <v>128</v>
-      </c>
-      <c r="AM17" s="23">
+      <c r="AM17" s="19">
+        <v>256</v>
+      </c>
+      <c r="AN17" s="19">
+        <v>128</v>
+      </c>
+      <c r="AP17" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -2062,54 +2121,57 @@
         <v>32</v>
       </c>
       <c r="P18" s="25"/>
-      <c r="U18" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
+      <c r="Q18" s="25"/>
       <c r="V18" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="W18" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
+      <c r="X18" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC18" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AD18" s="19"/>
-      <c r="AE18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG18" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
       <c r="AH18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AI18" s="19">
+      <c r="AL18" s="19">
         <v>512</v>
       </c>
-      <c r="AJ18" s="19">
-        <v>256</v>
-      </c>
-      <c r="AK18" s="19">
-        <v>128</v>
-      </c>
       <c r="AM18" s="19">
+        <v>256</v>
+      </c>
+      <c r="AN18" s="19">
+        <v>128</v>
+      </c>
+      <c r="AP18" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -2138,57 +2200,60 @@
         <v>32</v>
       </c>
       <c r="P19" s="25"/>
-      <c r="U19" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
+      <c r="Q19" s="25"/>
       <c r="V19" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="W19" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
+      <c r="X19" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC19" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AD19" s="19"/>
-      <c r="AE19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG19" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
       <c r="AH19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AI19">
+      <c r="AL19">
         <v>512</v>
       </c>
-      <c r="AJ19">
-        <v>256</v>
-      </c>
-      <c r="AK19">
-        <v>128</v>
-      </c>
       <c r="AM19">
-        <v>1.0000000000000001E-5</v>
+        <v>256</v>
       </c>
       <c r="AN19">
+        <v>128</v>
+      </c>
+      <c r="AP19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AQ19">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2219,54 +2284,56 @@
       <c r="O20">
         <v>64</v>
       </c>
-      <c r="U20" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
       <c r="V20" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="W20" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
+      <c r="X20" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC20" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="AD20" s="22"/>
-      <c r="AE20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG20" s="22" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
       <c r="AH20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AI20">
+      <c r="AL20">
         <v>512</v>
       </c>
-      <c r="AJ20">
-        <v>256</v>
-      </c>
-      <c r="AK20">
-        <v>128</v>
-      </c>
       <c r="AM20">
+        <v>256</v>
+      </c>
+      <c r="AN20">
+        <v>128</v>
+      </c>
+      <c r="AP20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2288,54 +2355,56 @@
       <c r="O21">
         <v>64</v>
       </c>
-      <c r="U21" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
       <c r="V21" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="W21" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X21" s="22" t="s">
+      <c r="X21" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y21" s="22" t="s">
+      <c r="AB21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Z21" s="22" t="s">
+      <c r="AC21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
       <c r="AD21" s="22"/>
-      <c r="AE21" s="22" t="s">
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AF21" s="22" t="s">
+      <c r="AI21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AG21" s="22" t="s">
+      <c r="AJ21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AH21" s="22" t="s">
+      <c r="AK21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AI21">
+      <c r="AL21">
         <v>512</v>
       </c>
-      <c r="AJ21">
-        <v>256</v>
-      </c>
-      <c r="AK21">
-        <v>128</v>
-      </c>
       <c r="AM21">
+        <v>256</v>
+      </c>
+      <c r="AN21">
+        <v>128</v>
+      </c>
+      <c r="AP21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2366,54 +2435,56 @@
       <c r="O22">
         <v>64</v>
       </c>
-      <c r="U22" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
       <c r="V22" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="W22" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X22" s="22" t="s">
+      <c r="X22" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="22" t="s">
+      <c r="AB22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Z22" s="22" t="s">
+      <c r="AC22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
       <c r="AD22" s="22"/>
-      <c r="AE22" s="22" t="s">
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AF22" s="22" t="s">
+      <c r="AI22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AG22" s="22" t="s">
+      <c r="AJ22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AH22" s="22" t="s">
+      <c r="AK22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AI22">
+      <c r="AL22">
         <v>512</v>
       </c>
-      <c r="AJ22">
-        <v>256</v>
-      </c>
-      <c r="AK22">
-        <v>128</v>
-      </c>
       <c r="AM22">
+        <v>256</v>
+      </c>
+      <c r="AN22">
+        <v>128</v>
+      </c>
+      <c r="AP22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2438,66 +2509,68 @@
       <c r="O23">
         <v>64</v>
       </c>
-      <c r="U23" s="24">
-        <v>0</v>
-      </c>
       <c r="V23" s="24">
         <v>0</v>
       </c>
       <c r="W23" s="24">
         <v>0</v>
       </c>
-      <c r="X23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
+      <c r="X23" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC23" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AD23" s="23"/>
-      <c r="AE23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG23" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
       <c r="AH23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AI23">
+      <c r="AL23" s="27">
         <v>512</v>
       </c>
-      <c r="AJ23">
-        <v>256</v>
-      </c>
-      <c r="AK23">
-        <v>256</v>
-      </c>
-      <c r="AL23">
-        <v>128</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
+      <c r="AM23" s="27">
+        <v>256</v>
+      </c>
+      <c r="AN23" s="27">
+        <v>256</v>
+      </c>
+      <c r="AO23" s="27">
+        <v>128</v>
+      </c>
+      <c r="AP23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="27">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AR23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2533,66 +2606,68 @@
       <c r="O24">
         <v>64</v>
       </c>
-      <c r="U24" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="V24" s="24">
-        <v>0</v>
+      <c r="V24" s="22">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="W24" s="24">
         <v>0</v>
       </c>
-      <c r="X24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
+      <c r="X24" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC24" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AD24" s="23"/>
-      <c r="AE24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG24" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
       <c r="AH24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AI24">
+      <c r="AL24" s="27">
         <v>512</v>
       </c>
-      <c r="AJ24">
-        <v>256</v>
-      </c>
-      <c r="AK24">
-        <v>128</v>
-      </c>
-      <c r="AL24">
-        <v>64</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
+      <c r="AM24" s="27">
+        <v>256</v>
+      </c>
+      <c r="AN24" s="27">
+        <v>128</v>
+      </c>
+      <c r="AO24" s="27">
+        <v>64</v>
+      </c>
+      <c r="AP24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="27">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>22</v>
       </c>
@@ -2629,51 +2704,53 @@
       <c r="O25">
         <v>32</v>
       </c>
-      <c r="U25" s="24">
-        <v>0</v>
-      </c>
       <c r="V25" s="24">
         <v>0</v>
       </c>
       <c r="W25" s="24">
         <v>0</v>
       </c>
-      <c r="X25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
+      <c r="X25" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC25" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AD25" s="23"/>
-      <c r="AE25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG25" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
       <c r="AH25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AI25">
+      <c r="AL25">
         <v>32</v>
       </c>
-      <c r="AJ25">
+      <c r="AM25">
         <v>32</v>
       </c>
-      <c r="AM25">
+      <c r="AP25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2713,51 +2790,53 @@
       <c r="O26">
         <v>32</v>
       </c>
-      <c r="U26" s="24">
-        <v>0</v>
-      </c>
       <c r="V26" s="24">
         <v>0</v>
       </c>
       <c r="W26" s="24">
         <v>0</v>
       </c>
-      <c r="X26" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y26" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z26" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
+      <c r="X26" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC26" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AD26" s="23"/>
-      <c r="AE26" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF26" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG26" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
       <c r="AH26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK26" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AI26">
-        <v>64</v>
-      </c>
-      <c r="AJ26">
+      <c r="AL26">
         <v>64</v>
       </c>
       <c r="AM26">
+        <v>64</v>
+      </c>
+      <c r="AP26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>57</v>
       </c>
@@ -2793,51 +2872,54 @@
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
-      <c r="U27" s="27">
-        <v>0</v>
-      </c>
+      <c r="U27" s="27"/>
       <c r="V27" s="27">
         <v>0</v>
       </c>
       <c r="W27" s="27">
         <v>0</v>
       </c>
-      <c r="X27" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y27" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z27" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
+      <c r="X27" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC27" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="AD27" s="27"/>
-      <c r="AE27" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF27" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG27" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
       <c r="AH27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK27" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AI27" s="27">
-        <v>128</v>
-      </c>
-      <c r="AJ27" s="27">
-        <v>128</v>
-      </c>
-      <c r="AM27">
+      <c r="AL27" s="27">
+        <v>128</v>
+      </c>
+      <c r="AM27" s="27">
+        <v>128</v>
+      </c>
+      <c r="AP27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2866,51 +2948,54 @@
         <v>64</v>
       </c>
       <c r="P28" s="27"/>
-      <c r="U28" s="24">
-        <v>0</v>
-      </c>
+      <c r="Q28" s="27"/>
       <c r="V28" s="24">
         <v>0</v>
       </c>
       <c r="W28" s="24">
         <v>0</v>
       </c>
-      <c r="X28" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y28" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z28" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
+      <c r="X28" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC28" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AD28" s="23"/>
-      <c r="AE28" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF28" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG28" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
       <c r="AH28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK28" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AI28">
-        <v>128</v>
-      </c>
-      <c r="AJ28">
+      <c r="AL28">
         <v>128</v>
       </c>
       <c r="AM28">
+        <v>128</v>
+      </c>
+      <c r="AP28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -2950,57 +3035,59 @@
       <c r="O29">
         <v>32</v>
       </c>
-      <c r="U29" s="24">
-        <v>0</v>
-      </c>
       <c r="V29" s="24">
         <v>0</v>
       </c>
       <c r="W29" s="24">
         <v>0</v>
       </c>
-      <c r="X29" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y29" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z29" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
+      <c r="X29" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC29" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AD29" s="23"/>
-      <c r="AE29" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF29" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG29" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
       <c r="AH29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AI29">
-        <v>128</v>
-      </c>
-      <c r="AJ29">
-        <v>128</v>
-      </c>
-      <c r="AK29">
-        <v>128</v>
-      </c>
       <c r="AL29">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AM29">
+        <v>128</v>
+      </c>
+      <c r="AN29">
+        <v>128</v>
+      </c>
+      <c r="AO29">
+        <v>64</v>
+      </c>
+      <c r="AP29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3040,57 +3127,59 @@
       <c r="O30">
         <v>32</v>
       </c>
-      <c r="U30" s="24">
-        <v>0</v>
-      </c>
       <c r="V30" s="24">
         <v>0</v>
       </c>
       <c r="W30" s="24">
         <v>0</v>
       </c>
-      <c r="X30" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y30" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z30" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="23"/>
+      <c r="X30" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC30" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AD30" s="23"/>
-      <c r="AE30" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF30" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG30" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
       <c r="AH30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AI30">
-        <v>128</v>
-      </c>
-      <c r="AJ30">
-        <v>128</v>
-      </c>
-      <c r="AK30">
-        <v>128</v>
-      </c>
       <c r="AL30">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AM30">
+        <v>128</v>
+      </c>
+      <c r="AN30">
+        <v>128</v>
+      </c>
+      <c r="AO30">
+        <v>64</v>
+      </c>
+      <c r="AP30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3130,57 +3219,59 @@
       <c r="O31">
         <v>64</v>
       </c>
-      <c r="U31" s="24">
-        <v>0</v>
-      </c>
       <c r="V31" s="24">
         <v>0</v>
       </c>
       <c r="W31" s="24">
         <v>0</v>
       </c>
-      <c r="X31" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y31" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z31" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="23"/>
+      <c r="X31" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC31" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AD31" s="23"/>
-      <c r="AE31" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF31" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG31" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
       <c r="AH31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK31" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AI31">
-        <v>128</v>
-      </c>
-      <c r="AJ31">
-        <v>128</v>
-      </c>
-      <c r="AK31">
-        <v>128</v>
-      </c>
       <c r="AL31">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AM31">
+        <v>128</v>
+      </c>
+      <c r="AN31">
+        <v>128</v>
+      </c>
+      <c r="AO31">
+        <v>64</v>
+      </c>
+      <c r="AP31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
@@ -3193,6 +3284,21 @@
       <c r="G32">
         <v>200</v>
       </c>
+      <c r="H32">
+        <v>25000</v>
+      </c>
+      <c r="I32">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="J32">
+        <v>1.99</v>
+      </c>
+      <c r="K32">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="L32">
+        <v>27650</v>
+      </c>
       <c r="M32">
         <v>32</v>
       </c>
@@ -3205,62 +3311,380 @@
       <c r="P32">
         <v>128</v>
       </c>
-      <c r="U32" s="24">
-        <v>0</v>
-      </c>
       <c r="V32" s="24">
         <v>0</v>
       </c>
       <c r="W32" s="24">
         <v>0</v>
       </c>
-      <c r="X32" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y32" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z32" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="23"/>
+      <c r="X32" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC32" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AD32" s="23"/>
-      <c r="AE32" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF32" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG32" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
       <c r="AH32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AI32">
-        <v>128</v>
-      </c>
-      <c r="AJ32">
-        <v>128</v>
-      </c>
-      <c r="AK32">
-        <v>128</v>
-      </c>
       <c r="AL32">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AM32">
+        <v>128</v>
+      </c>
+      <c r="AN32">
+        <v>128</v>
+      </c>
+      <c r="AO32">
+        <v>64</v>
+      </c>
+      <c r="AP32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="25">
+        <v>30</v>
+      </c>
+      <c r="C33" s="25">
+        <v>128</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33">
+        <v>200</v>
+      </c>
+      <c r="H33">
+        <v>28250</v>
+      </c>
+      <c r="I33">
+        <v>0.79</v>
+      </c>
+      <c r="J33">
+        <v>2.34</v>
+      </c>
+      <c r="K33">
+        <v>0.96</v>
+      </c>
+      <c r="L33">
+        <v>26500</v>
+      </c>
+      <c r="M33">
+        <v>64</v>
+      </c>
+      <c r="N33">
+        <v>64</v>
+      </c>
+      <c r="O33">
+        <v>128</v>
+      </c>
+      <c r="P33">
+        <v>128</v>
+      </c>
+      <c r="Q33">
+        <v>256</v>
+      </c>
+      <c r="V33" s="24">
+        <v>0</v>
+      </c>
+      <c r="W33" s="24">
+        <v>0</v>
+      </c>
+      <c r="X33" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK33" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL33">
+        <v>256</v>
+      </c>
+      <c r="AM33">
+        <v>256</v>
+      </c>
+      <c r="AN33">
+        <v>128</v>
+      </c>
+      <c r="AO33">
+        <v>64</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>128</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34">
+        <v>200</v>
+      </c>
+      <c r="H34">
+        <v>4100</v>
+      </c>
+      <c r="I34">
+        <v>0.32</v>
+      </c>
+      <c r="J34">
+        <v>1.01</v>
+      </c>
+      <c r="K34">
+        <v>0.65</v>
+      </c>
+      <c r="L34">
+        <v>4750</v>
+      </c>
+      <c r="M34">
+        <v>64</v>
+      </c>
+      <c r="N34">
+        <v>64</v>
+      </c>
+      <c r="O34">
+        <v>128</v>
+      </c>
+      <c r="P34">
+        <v>128</v>
+      </c>
+      <c r="Q34">
+        <v>256</v>
+      </c>
+      <c r="V34" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="W34" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="X34" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK34" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL34">
+        <v>512</v>
+      </c>
+      <c r="AM34">
+        <v>256</v>
+      </c>
+      <c r="AN34">
+        <v>128</v>
+      </c>
+      <c r="AO34">
+        <v>64</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>128</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35">
+        <v>200</v>
+      </c>
+      <c r="I35" s="27">
+        <v>0</v>
+      </c>
+      <c r="J35" s="27">
+        <v>0</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M35">
+        <v>64</v>
+      </c>
+      <c r="N35">
+        <v>64</v>
+      </c>
+      <c r="O35">
+        <v>128</v>
+      </c>
+      <c r="P35">
+        <v>128</v>
+      </c>
+      <c r="Q35">
+        <v>256</v>
+      </c>
+      <c r="V35" s="24">
+        <v>0</v>
+      </c>
+      <c r="W35" s="24">
+        <v>0</v>
+      </c>
+      <c r="X35" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK35" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL35">
+        <v>512</v>
+      </c>
+      <c r="AM35">
+        <v>256</v>
+      </c>
+      <c r="AN35">
+        <v>128</v>
+      </c>
+      <c r="AO35">
+        <v>64</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="B1:W1"/>
     <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prediction based on convolutional neural network/code/NewModels1/worklog/填充方式与池化方式.xlsx
+++ b/Prediction based on convolutional neural network/code/NewModels1/worklog/填充方式与池化方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E3F7AF7-85E2-496F-8D22-4742B968C030}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE360F39-EA0D-42D1-BFC7-33E34B20E574}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="79">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>所有值都一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q437b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tensile_log_alpha1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为某些原因，程序没有运行完成 Tensile_log_alpha0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -672,6 +684,7 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="8" applyAlignment="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="7" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,7 +694,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -971,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS36"/>
+  <dimension ref="A1:AS38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="AA4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN29" sqref="AN29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -993,30 +1005,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
@@ -1092,16 +1104,16 @@
       <c r="AD2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="31" t="s">
+      <c r="AE2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="32" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
       <c r="AK2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3570,7 +3582,7 @@
       <c r="AR34">
         <v>0</v>
       </c>
-      <c r="AS34" s="33">
+      <c r="AS34" s="30">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -3675,11 +3687,325 @@
       <c r="AR35">
         <v>0</v>
       </c>
-      <c r="AS35" s="33">
+      <c r="AS35" s="30">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:45" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="25">
+        <v>33</v>
+      </c>
+      <c r="C36" s="25">
+        <v>128</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36">
+        <v>200</v>
+      </c>
+      <c r="H36" s="25">
+        <v>9949</v>
+      </c>
+      <c r="I36" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="J36" s="25">
+        <v>1.83</v>
+      </c>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36">
+        <v>64</v>
+      </c>
+      <c r="N36">
+        <v>64</v>
+      </c>
+      <c r="O36">
+        <v>128</v>
+      </c>
+      <c r="P36">
+        <v>128</v>
+      </c>
+      <c r="Q36">
+        <v>256</v>
+      </c>
+      <c r="V36" s="24">
+        <v>0</v>
+      </c>
+      <c r="W36" s="24">
+        <v>0</v>
+      </c>
+      <c r="X36" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK36" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL36">
+        <v>512</v>
+      </c>
+      <c r="AM36">
+        <v>256</v>
+      </c>
+      <c r="AN36">
+        <v>128</v>
+      </c>
+      <c r="AO36">
+        <v>64</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="25">
+        <v>34</v>
+      </c>
+      <c r="C37" s="25">
+        <v>128</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37">
+        <v>90</v>
+      </c>
+      <c r="H37" s="25">
+        <v>8200</v>
+      </c>
+      <c r="I37" s="25">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="J37" s="25">
+        <v>2.67</v>
+      </c>
+      <c r="K37" s="25">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="L37" s="25">
+        <v>23550</v>
+      </c>
+      <c r="M37">
+        <v>64</v>
+      </c>
+      <c r="N37">
+        <v>64</v>
+      </c>
+      <c r="O37">
+        <v>128</v>
+      </c>
+      <c r="P37">
+        <v>128</v>
+      </c>
+      <c r="Q37">
+        <v>256</v>
+      </c>
+      <c r="V37" s="24">
+        <v>0</v>
+      </c>
+      <c r="W37" s="24">
+        <v>0</v>
+      </c>
+      <c r="X37" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB37" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC37" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI37" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ37" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK37" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL37">
+        <v>512</v>
+      </c>
+      <c r="AM37">
+        <v>256</v>
+      </c>
+      <c r="AN37">
+        <v>128</v>
+      </c>
+      <c r="AO37">
+        <v>64</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="25">
+        <v>35</v>
+      </c>
+      <c r="C38" s="25">
+        <v>128</v>
+      </c>
+      <c r="D38">
+        <v>0.05</v>
+      </c>
+      <c r="E38">
+        <v>0.9</v>
+      </c>
+      <c r="M38">
+        <v>64</v>
+      </c>
+      <c r="N38">
+        <v>64</v>
+      </c>
+      <c r="O38">
+        <v>128</v>
+      </c>
+      <c r="P38">
+        <v>128</v>
+      </c>
+      <c r="Q38">
+        <v>256</v>
+      </c>
+      <c r="V38" s="24">
+        <v>0</v>
+      </c>
+      <c r="W38" s="24">
+        <v>0</v>
+      </c>
+      <c r="X38" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB38" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC38" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI38" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ38" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK38" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL38">
+        <v>512</v>
+      </c>
+      <c r="AM38">
+        <v>256</v>
+      </c>
+      <c r="AN38">
+        <v>128</v>
+      </c>
+      <c r="AO38">
+        <v>64</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:W1"/>

--- a/Prediction based on convolutional neural network/code/NewModels1/worklog/填充方式与池化方式.xlsx
+++ b/Prediction based on convolutional neural network/code/NewModels1/worklog/填充方式与池化方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE360F39-EA0D-42D1-BFC7-33E34B20E574}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CFA4697-1041-453E-BF1C-41CAA4EAF9F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="85">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -330,11 +330,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tensile_log_alpha1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>因为某些原因，程序没有运行完成 Tensile_log_alpha0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35次得到的结果和34次几乎一模一样，这提醒我们0.9^5=0.5所以在5次总数据后即450次迭代后数据会趋于一致。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于使用了较大的batch,训练很慢RPD几乎稳定在1.5的范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q138b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tensile_log_alpha1（效果不错但是我们想要更好的效果）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tensile_train_1,Tensile_test_1,Tensile_eval_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练loss在6000次后趋于平稳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,8 +450,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +542,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -609,7 +646,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -638,8 +675,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -694,14 +734,17 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="7" builtinId="26"/>
     <cellStyle name="计算" xfId="6" builtinId="22"/>
     <cellStyle name="检查单元格" xfId="8" builtinId="23"/>
     <cellStyle name="警告文本" xfId="9" builtinId="11"/>
     <cellStyle name="链接单元格" xfId="3" builtinId="24"/>
+    <cellStyle name="适中" xfId="10" builtinId="28"/>
     <cellStyle name="输出" xfId="5" builtinId="21"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
     <cellStyle name="着色 2" xfId="2" builtinId="33"/>
@@ -983,32 +1026,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS38"/>
+  <dimension ref="A1:AT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN29" sqref="AN29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="101.125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
-    <col min="10" max="12" width="19.875" customWidth="1"/>
-    <col min="18" max="18" width="17.875" customWidth="1"/>
-    <col min="22" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="21.5" customWidth="1"/>
-    <col min="37" max="37" width="11.625" customWidth="1"/>
-    <col min="38" max="38" width="22.5" customWidth="1"/>
-    <col min="39" max="41" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="118.875" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="11" max="13" width="19.875" customWidth="1"/>
+    <col min="19" max="19" width="17.875" customWidth="1"/>
+    <col min="23" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="21.5" customWidth="1"/>
+    <col min="38" max="38" width="11.625" customWidth="1"/>
+    <col min="39" max="39" width="22.5" customWidth="1"/>
+    <col min="40" max="42" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:43" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -1029,218 +1072,216 @@
       <c r="U1" s="31"/>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
-      <c r="X1" s="6"/>
+      <c r="X1" s="31"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
     </row>
-    <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="28"/>
+      <c r="P2" s="11"/>
       <c r="Q2" s="28"/>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="28"/>
+      <c r="S2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="13"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="13"/>
+      <c r="W2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="14"/>
       <c r="X2" s="14"/>
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AF2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="32"/>
       <c r="AG2" s="32"/>
-      <c r="AH2" s="33" t="s">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="33"/>
       <c r="AJ2" s="33"/>
-      <c r="AK2" s="15" t="s">
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="16" t="s">
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="5"/>
-      <c r="M3" t="s">
+    <row r="3" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="5"/>
+      <c r="N3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>19</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>68</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>17</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>18</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>19</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>17</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>17</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>18</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>19</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>17</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>19</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>2</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B4">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>256</v>
-      </c>
       <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="E4">
         <v>0.1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>200</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1150</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.93</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3.45</v>
       </c>
-      <c r="M4">
-        <v>64</v>
-      </c>
       <c r="N4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O4">
-        <v>256</v>
-      </c>
-      <c r="R4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4">
+        <v>256</v>
+      </c>
+      <c r="S4" t="s">
         <v>21</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -1249,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="V4">
-        <v>1.0000000000000001E-5</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>1.0000000000000001E-5</v>
@@ -1257,8 +1298,8 @@
       <c r="X4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AA4" t="s">
-        <v>22</v>
+      <c r="Y4">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AB4" t="s">
         <v>22</v>
@@ -1267,10 +1308,10 @@
         <v>22</v>
       </c>
       <c r="AD4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" t="s">
         <v>23</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1278,8 +1319,8 @@
       <c r="AG4">
         <v>1</v>
       </c>
-      <c r="AH4" t="s">
-        <v>22</v>
+      <c r="AH4">
+        <v>1</v>
       </c>
       <c r="AI4" t="s">
         <v>22</v>
@@ -1288,48 +1329,48 @@
         <v>22</v>
       </c>
       <c r="AK4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL4" t="s">
         <v>24</v>
       </c>
-      <c r="AL4">
-        <v>256</v>
-      </c>
-      <c r="AP4">
+      <c r="AM4">
+        <v>256</v>
+      </c>
+      <c r="AQ4">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>256</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5">
+        <v>256</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3600</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.92</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3.47</v>
       </c>
-      <c r="M5">
-        <v>64</v>
-      </c>
       <c r="N5">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O5">
-        <v>256</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>28</v>
+        <v>128</v>
+      </c>
+      <c r="P5">
+        <v>256</v>
       </c>
       <c r="AB5" t="s">
         <v>28</v>
@@ -1337,7 +1378,7 @@
       <c r="AC5" t="s">
         <v>28</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AD5" t="s">
         <v>28</v>
       </c>
       <c r="AI5" t="s">
@@ -1347,45 +1388,45 @@
         <v>28</v>
       </c>
       <c r="AK5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL5" t="s">
         <v>32</v>
       </c>
-      <c r="AL5">
-        <v>256</v>
-      </c>
-      <c r="AP5">
+      <c r="AM5">
+        <v>256</v>
+      </c>
+      <c r="AQ5">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B6">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>256</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6">
+        <v>256</v>
+      </c>
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3850</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.91</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3.19</v>
       </c>
-      <c r="M6">
-        <v>64</v>
-      </c>
       <c r="N6">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O6">
-        <v>256</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>33</v>
+        <v>128</v>
+      </c>
+      <c r="P6">
+        <v>256</v>
       </c>
       <c r="AB6" t="s">
         <v>33</v>
@@ -1393,7 +1434,7 @@
       <c r="AC6" t="s">
         <v>33</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AD6" t="s">
         <v>33</v>
       </c>
       <c r="AI6" t="s">
@@ -1403,54 +1444,57 @@
         <v>33</v>
       </c>
       <c r="AK6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL6" t="s">
         <v>34</v>
       </c>
-      <c r="AL6">
-        <v>256</v>
-      </c>
-      <c r="AP6">
+      <c r="AM6">
+        <v>256</v>
+      </c>
+      <c r="AQ6">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B7">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>256</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7">
+        <v>256</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4050</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.9</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3.22</v>
       </c>
-      <c r="M7">
-        <v>64</v>
-      </c>
       <c r="N7">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O7">
-        <v>256</v>
-      </c>
-      <c r="AA7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7">
+        <v>256</v>
+      </c>
+      <c r="AB7" t="s">
         <v>28</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>37</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>36</v>
       </c>
       <c r="AI7" t="s">
         <v>36</v>
@@ -1459,56 +1503,56 @@
         <v>36</v>
       </c>
       <c r="AK7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL7" t="s">
         <v>34</v>
       </c>
-      <c r="AL7">
-        <v>256</v>
-      </c>
-      <c r="AP7">
+      <c r="AM7">
+        <v>256</v>
+      </c>
+      <c r="AQ7">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>256</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8">
+        <v>256</v>
+      </c>
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.23</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.85</v>
       </c>
-      <c r="M8">
-        <v>64</v>
-      </c>
       <c r="N8">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O8">
-        <v>256</v>
-      </c>
-      <c r="AA8" s="19" t="s">
-        <v>28</v>
+        <v>128</v>
+      </c>
+      <c r="P8">
+        <v>256</v>
       </c>
       <c r="AB8" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AC8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
-      <c r="AH8" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AH8" s="19"/>
       <c r="AI8" s="19" t="s">
         <v>28</v>
       </c>
@@ -1516,42 +1560,42 @@
         <v>28</v>
       </c>
       <c r="AK8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AL8">
-        <v>256</v>
-      </c>
-      <c r="AP8">
+      <c r="AM8">
+        <v>256</v>
+      </c>
+      <c r="AQ8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="9" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>256</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9">
+        <v>256</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.01</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.38</v>
       </c>
-      <c r="M9">
-        <v>64</v>
-      </c>
       <c r="N9">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O9">
-        <v>256</v>
-      </c>
-      <c r="AA9" s="20" t="s">
-        <v>22</v>
+        <v>128</v>
+      </c>
+      <c r="P9">
+        <v>256</v>
       </c>
       <c r="AB9" s="20" t="s">
         <v>22</v>
@@ -1559,13 +1603,13 @@
       <c r="AC9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="20"/>
+      <c r="AD9" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
       <c r="AG9" s="20"/>
-      <c r="AH9" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH9" s="20"/>
       <c r="AI9" s="20" t="s">
         <v>22</v>
       </c>
@@ -1573,42 +1617,42 @@
         <v>22</v>
       </c>
       <c r="AK9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AL9">
-        <v>256</v>
-      </c>
-      <c r="AP9">
+      <c r="AM9">
+        <v>256</v>
+      </c>
+      <c r="AQ9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>256</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10">
+        <v>256</v>
+      </c>
+      <c r="G10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>40</v>
       </c>
-      <c r="M10">
-        <v>64</v>
-      </c>
       <c r="N10">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O10">
-        <v>256</v>
-      </c>
-      <c r="AA10" s="20" t="s">
-        <v>28</v>
+        <v>128</v>
+      </c>
+      <c r="P10">
+        <v>256</v>
       </c>
       <c r="AB10" s="20" t="s">
         <v>28</v>
@@ -1616,13 +1660,13 @@
       <c r="AC10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AD10" s="20"/>
+      <c r="AD10" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AG10" s="20"/>
-      <c r="AH10" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="AH10" s="20"/>
       <c r="AI10" s="20" t="s">
         <v>28</v>
       </c>
@@ -1630,46 +1674,48 @@
         <v>28</v>
       </c>
       <c r="AK10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AL10">
-        <v>256</v>
-      </c>
-      <c r="AP10">
+      <c r="AM10">
+        <v>256</v>
+      </c>
+      <c r="AQ10">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>256</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11">
+        <v>256</v>
+      </c>
+      <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="25">
+      <c r="I11" s="25">
         <v>700</v>
       </c>
-      <c r="I11" s="25">
+      <c r="J11" s="25">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J11" s="25">
+      <c r="K11" s="25">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K11" s="25"/>
       <c r="L11" s="25"/>
-      <c r="M11" s="25">
-        <v>64</v>
-      </c>
+      <c r="M11" s="25"/>
       <c r="N11" s="25">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O11" s="25">
-        <v>256</v>
-      </c>
-      <c r="P11" s="25"/>
+        <v>128</v>
+      </c>
+      <c r="P11" s="25">
+        <v>256</v>
+      </c>
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
@@ -1680,22 +1726,20 @@
       <c r="X11" s="25"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA11" s="25"/>
       <c r="AB11" s="26" t="s">
         <v>22</v>
       </c>
       <c r="AC11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AD11" s="26"/>
+      <c r="AD11" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
-      <c r="AH11" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH11" s="26"/>
       <c r="AI11" s="26" t="s">
         <v>22</v>
       </c>
@@ -1703,39 +1747,39 @@
         <v>22</v>
       </c>
       <c r="AK11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AL11" s="25">
-        <v>256</v>
-      </c>
-      <c r="AP11">
+      <c r="AM11" s="25">
+        <v>256</v>
+      </c>
+      <c r="AQ11">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>9</v>
       </c>
-      <c r="C12">
-        <v>256</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12">
+        <v>256</v>
+      </c>
+      <c r="G12" t="s">
         <v>38</v>
       </c>
-      <c r="M12">
-        <v>64</v>
-      </c>
       <c r="N12">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O12">
-        <v>256</v>
-      </c>
-      <c r="AA12" s="19" t="s">
-        <v>22</v>
+        <v>128</v>
+      </c>
+      <c r="P12">
+        <v>256</v>
       </c>
       <c r="AB12" s="19" t="s">
         <v>22</v>
@@ -1743,13 +1787,13 @@
       <c r="AC12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AD12" s="19"/>
+      <c r="AD12" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
-      <c r="AH12" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH12" s="19"/>
       <c r="AI12" s="19" t="s">
         <v>22</v>
       </c>
@@ -1757,42 +1801,42 @@
         <v>22</v>
       </c>
       <c r="AK12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AL12">
-        <v>256</v>
-      </c>
       <c r="AM12">
-        <v>128</v>
-      </c>
-      <c r="AP12">
+        <v>256</v>
+      </c>
+      <c r="AN12">
+        <v>128</v>
+      </c>
+      <c r="AQ12">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>256</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13">
+        <v>256</v>
+      </c>
+      <c r="G13" t="s">
         <v>38</v>
       </c>
-      <c r="M13">
-        <v>64</v>
-      </c>
       <c r="N13">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O13">
-        <v>256</v>
-      </c>
-      <c r="AA13" s="19" t="s">
-        <v>22</v>
+        <v>128</v>
+      </c>
+      <c r="P13">
+        <v>256</v>
       </c>
       <c r="AB13" s="19" t="s">
         <v>22</v>
@@ -1800,13 +1844,13 @@
       <c r="AC13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AD13" s="19"/>
+      <c r="AD13" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
-      <c r="AH13" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH13" s="19"/>
       <c r="AI13" s="19" t="s">
         <v>22</v>
       </c>
@@ -1814,45 +1858,45 @@
         <v>22</v>
       </c>
       <c r="AK13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>43</v>
       </c>
-      <c r="AM13">
-        <v>256</v>
-      </c>
       <c r="AN13">
-        <v>128</v>
-      </c>
-      <c r="AP13">
+        <v>256</v>
+      </c>
+      <c r="AO13">
+        <v>128</v>
+      </c>
+      <c r="AQ13">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>11</v>
       </c>
-      <c r="C14">
-        <v>256</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D14">
+        <v>256</v>
+      </c>
+      <c r="G14" t="s">
         <v>38</v>
       </c>
-      <c r="M14">
-        <v>64</v>
-      </c>
       <c r="N14">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="O14">
-        <v>256</v>
-      </c>
-      <c r="V14">
-        <v>5.0000000000000004E-6</v>
+        <v>128</v>
+      </c>
+      <c r="P14">
+        <v>256</v>
       </c>
       <c r="W14">
         <v>5.0000000000000004E-6</v>
@@ -1860,8 +1904,8 @@
       <c r="X14">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="AA14" s="19" t="s">
-        <v>22</v>
+      <c r="Y14">
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="AB14" s="19" t="s">
         <v>22</v>
@@ -1869,13 +1913,13 @@
       <c r="AC14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AD14" s="19"/>
+      <c r="AD14" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
-      <c r="AH14" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH14" s="19"/>
       <c r="AI14" s="19" t="s">
         <v>22</v>
       </c>
@@ -1883,45 +1927,45 @@
         <v>22</v>
       </c>
       <c r="AK14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>44</v>
       </c>
-      <c r="AM14">
-        <v>256</v>
-      </c>
       <c r="AN14">
-        <v>128</v>
-      </c>
-      <c r="AP14">
+        <v>256</v>
+      </c>
+      <c r="AO14">
+        <v>128</v>
+      </c>
+      <c r="AQ14">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>12</v>
       </c>
-      <c r="C15">
-        <v>256</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15">
+        <v>256</v>
+      </c>
+      <c r="G15" t="s">
         <v>38</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>32</v>
       </c>
-      <c r="N15">
-        <v>64</v>
-      </c>
       <c r="O15">
-        <v>128</v>
-      </c>
-      <c r="V15">
-        <v>1.0000000000000001E-5</v>
+        <v>64</v>
+      </c>
+      <c r="P15">
+        <v>128</v>
       </c>
       <c r="W15">
         <v>1.0000000000000001E-5</v>
@@ -1929,8 +1973,8 @@
       <c r="X15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AA15" s="19" t="s">
-        <v>22</v>
+      <c r="Y15">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AB15" s="19" t="s">
         <v>22</v>
@@ -1938,13 +1982,13 @@
       <c r="AC15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AD15" s="19"/>
+      <c r="AD15" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
-      <c r="AH15" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH15" s="19"/>
       <c r="AI15" s="19" t="s">
         <v>22</v>
       </c>
@@ -1952,71 +1996,71 @@
         <v>22</v>
       </c>
       <c r="AK15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>512</v>
       </c>
-      <c r="AM15">
-        <v>256</v>
-      </c>
       <c r="AN15">
-        <v>128</v>
-      </c>
-      <c r="AP15">
+        <v>256</v>
+      </c>
+      <c r="AO15">
+        <v>128</v>
+      </c>
+      <c r="AQ15">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>13</v>
       </c>
-      <c r="C16">
-        <v>256</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D16">
+        <v>256</v>
+      </c>
+      <c r="G16" t="s">
         <v>38</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1800</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2.3E-2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.27</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>32</v>
       </c>
-      <c r="N16">
-        <v>64</v>
-      </c>
       <c r="O16">
-        <v>128</v>
-      </c>
-      <c r="V16" s="19">
+        <v>64</v>
+      </c>
+      <c r="P16">
+        <v>128</v>
+      </c>
+      <c r="W16" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AA16" s="19" t="s">
-        <v>22</v>
-      </c>
       <c r="AB16" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AC16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AD16" s="19"/>
+      <c r="AD16" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
-      <c r="AH16" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH16" s="19"/>
       <c r="AI16" s="19" t="s">
         <v>22</v>
       </c>
@@ -2024,73 +2068,73 @@
         <v>22</v>
       </c>
       <c r="AK16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AL16" s="19">
+      <c r="AM16" s="19">
         <v>512</v>
       </c>
-      <c r="AM16" s="19">
-        <v>256</v>
-      </c>
       <c r="AN16" s="19">
-        <v>128</v>
-      </c>
-      <c r="AP16" s="23">
+        <v>256</v>
+      </c>
+      <c r="AO16" s="19">
+        <v>128</v>
+      </c>
+      <c r="AQ16" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>14</v>
       </c>
-      <c r="C17">
-        <v>256</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D17">
+        <v>256</v>
+      </c>
+      <c r="G17" t="s">
         <v>38</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3850</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.38</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.76</v>
       </c>
-      <c r="M17" s="25">
+      <c r="N17" s="25">
         <v>8</v>
       </c>
-      <c r="N17" s="25">
+      <c r="O17" s="25">
         <v>16</v>
       </c>
-      <c r="O17" s="25">
+      <c r="P17" s="25">
         <v>32</v>
       </c>
-      <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
-      <c r="V17" s="19">
+      <c r="R17" s="25"/>
+      <c r="W17" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AA17" s="19" t="s">
-        <v>22</v>
-      </c>
       <c r="AB17" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AC17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AD17" s="19"/>
+      <c r="AD17" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
-      <c r="AH17" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH17" s="19"/>
       <c r="AI17" s="19" t="s">
         <v>22</v>
       </c>
@@ -2098,69 +2142,69 @@
         <v>22</v>
       </c>
       <c r="AK17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AL17" s="19">
+      <c r="AM17" s="19">
         <v>512</v>
       </c>
-      <c r="AM17" s="19">
-        <v>256</v>
-      </c>
       <c r="AN17" s="19">
-        <v>128</v>
-      </c>
-      <c r="AP17" s="23">
+        <v>256</v>
+      </c>
+      <c r="AO17" s="19">
+        <v>128</v>
+      </c>
+      <c r="AQ17" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="18" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>15</v>
       </c>
-      <c r="C18">
-        <v>256</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18">
+        <v>256</v>
+      </c>
+      <c r="G18" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="25">
+      <c r="N18" s="25">
         <v>8</v>
       </c>
-      <c r="N18" s="25">
+      <c r="O18" s="25">
         <v>16</v>
       </c>
-      <c r="O18" s="25">
+      <c r="P18" s="25">
         <v>32</v>
       </c>
-      <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="V18" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
+      <c r="R18" s="25"/>
       <c r="W18" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="X18" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Y18" s="19"/>
+      <c r="Y18" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="Z18" s="19"/>
-      <c r="AA18" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA18" s="19"/>
       <c r="AB18" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AC18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AD18" s="19"/>
+      <c r="AD18" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
-      <c r="AH18" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH18" s="19"/>
       <c r="AI18" s="19" t="s">
         <v>22</v>
       </c>
@@ -2168,78 +2212,78 @@
         <v>22</v>
       </c>
       <c r="AK18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AL18" s="19">
+      <c r="AM18" s="19">
         <v>512</v>
       </c>
-      <c r="AM18" s="19">
-        <v>256</v>
-      </c>
       <c r="AN18" s="19">
-        <v>128</v>
-      </c>
-      <c r="AP18" s="19">
+        <v>256</v>
+      </c>
+      <c r="AO18" s="19">
+        <v>128</v>
+      </c>
+      <c r="AQ18" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="19" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>16</v>
       </c>
-      <c r="C19">
-        <v>256</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D19">
+        <v>256</v>
+      </c>
+      <c r="G19" t="s">
         <v>38</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4850</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.26</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.59</v>
       </c>
-      <c r="M19" s="25">
+      <c r="N19" s="25">
         <v>8</v>
       </c>
-      <c r="N19" s="25">
+      <c r="O19" s="25">
         <v>16</v>
       </c>
-      <c r="O19" s="25">
+      <c r="P19" s="25">
         <v>32</v>
       </c>
-      <c r="P19" s="25"/>
       <c r="Q19" s="25"/>
-      <c r="V19" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
+      <c r="R19" s="25"/>
       <c r="W19" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="X19" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Y19" s="19"/>
+      <c r="Y19" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="Z19" s="19"/>
-      <c r="AA19" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA19" s="19"/>
       <c r="AB19" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AC19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AD19" s="19"/>
+      <c r="AD19" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
-      <c r="AH19" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH19" s="19"/>
       <c r="AI19" s="19" t="s">
         <v>22</v>
       </c>
@@ -2247,57 +2291,57 @@
         <v>22</v>
       </c>
       <c r="AK19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>512</v>
       </c>
-      <c r="AM19">
-        <v>256</v>
-      </c>
       <c r="AN19">
-        <v>128</v>
-      </c>
-      <c r="AP19">
-        <v>1.0000000000000001E-5</v>
+        <v>256</v>
+      </c>
+      <c r="AO19">
+        <v>128</v>
       </c>
       <c r="AQ19">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="AR19">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>17</v>
       </c>
-      <c r="C20">
-        <v>256</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D20">
+        <v>256</v>
+      </c>
+      <c r="G20" t="s">
         <v>38</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>3900</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.42</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.07</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>16</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>32</v>
       </c>
-      <c r="O20">
-        <v>64</v>
-      </c>
-      <c r="V20" s="22">
-        <v>1.0000000000000001E-5</v>
+      <c r="P20">
+        <v>64</v>
       </c>
       <c r="W20" s="22">
         <v>1.0000000000000001E-5</v>
@@ -2305,24 +2349,24 @@
       <c r="X20" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Y20" s="22"/>
+      <c r="Y20" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="Z20" s="22"/>
-      <c r="AA20" s="22" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA20" s="22"/>
       <c r="AB20" s="22" t="s">
         <v>22</v>
       </c>
       <c r="AC20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AD20" s="22"/>
+      <c r="AD20" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="AE20" s="22"/>
       <c r="AF20" s="22"/>
       <c r="AG20" s="22"/>
-      <c r="AH20" s="22" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH20" s="22"/>
       <c r="AI20" s="22" t="s">
         <v>22</v>
       </c>
@@ -2330,45 +2374,45 @@
         <v>22</v>
       </c>
       <c r="AK20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>512</v>
       </c>
-      <c r="AM20">
-        <v>256</v>
-      </c>
       <c r="AN20">
-        <v>128</v>
-      </c>
-      <c r="AP20">
+        <v>256</v>
+      </c>
+      <c r="AO20">
+        <v>128</v>
+      </c>
+      <c r="AQ20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>18</v>
       </c>
-      <c r="C21">
-        <v>256</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D21">
+        <v>256</v>
+      </c>
+      <c r="G21" t="s">
         <v>38</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>16</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>32</v>
       </c>
-      <c r="O21">
-        <v>64</v>
-      </c>
-      <c r="V21" s="22">
-        <v>1.0000000000000001E-5</v>
+      <c r="P21">
+        <v>64</v>
       </c>
       <c r="W21" s="22">
         <v>1.0000000000000001E-5</v>
@@ -2376,24 +2420,24 @@
       <c r="X21" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Y21" s="22"/>
+      <c r="Y21" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="Z21" s="22"/>
-      <c r="AA21" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="AA21" s="22"/>
       <c r="AB21" s="22" t="s">
         <v>28</v>
       </c>
       <c r="AC21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AD21" s="22"/>
+      <c r="AD21" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="AE21" s="22"/>
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
-      <c r="AH21" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="AH21" s="22"/>
       <c r="AI21" s="22" t="s">
         <v>28</v>
       </c>
@@ -2401,54 +2445,54 @@
         <v>28</v>
       </c>
       <c r="AK21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>512</v>
       </c>
-      <c r="AM21">
-        <v>256</v>
-      </c>
       <c r="AN21">
-        <v>128</v>
-      </c>
-      <c r="AP21">
+        <v>256</v>
+      </c>
+      <c r="AO21">
+        <v>128</v>
+      </c>
+      <c r="AQ21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>19</v>
       </c>
-      <c r="C22">
-        <v>256</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D22">
+        <v>256</v>
+      </c>
+      <c r="G22" t="s">
         <v>38</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>4700</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.3</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.7</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>16</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>32</v>
       </c>
-      <c r="O22">
-        <v>64</v>
-      </c>
-      <c r="V22" s="22">
-        <v>1.0000000000000001E-5</v>
+      <c r="P22">
+        <v>64</v>
       </c>
       <c r="W22" s="22">
         <v>1.0000000000000001E-5</v>
@@ -2456,24 +2500,24 @@
       <c r="X22" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Y22" s="22"/>
+      <c r="Y22" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="Z22" s="22"/>
-      <c r="AA22" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="AA22" s="22"/>
       <c r="AB22" s="22" t="s">
         <v>28</v>
       </c>
       <c r="AC22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AD22" s="22"/>
+      <c r="AD22" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="AE22" s="22"/>
       <c r="AF22" s="22"/>
       <c r="AG22" s="22"/>
-      <c r="AH22" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="AH22" s="22"/>
       <c r="AI22" s="22" t="s">
         <v>28</v>
       </c>
@@ -2481,48 +2525,48 @@
         <v>28</v>
       </c>
       <c r="AK22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>512</v>
       </c>
-      <c r="AM22">
-        <v>256</v>
-      </c>
       <c r="AN22">
-        <v>128</v>
-      </c>
-      <c r="AP22">
+        <v>256</v>
+      </c>
+      <c r="AO22">
+        <v>128</v>
+      </c>
+      <c r="AQ22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>20</v>
       </c>
-      <c r="C23">
-        <v>256</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D23">
+        <v>256</v>
+      </c>
+      <c r="G23" t="s">
         <v>38</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>49</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>16</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>32</v>
       </c>
-      <c r="O23">
-        <v>64</v>
-      </c>
-      <c r="V23" s="24">
-        <v>0</v>
+      <c r="P23">
+        <v>64</v>
       </c>
       <c r="W23" s="24">
         <v>0</v>
@@ -2530,24 +2574,24 @@
       <c r="X23" s="24">
         <v>0</v>
       </c>
-      <c r="Y23" s="24"/>
+      <c r="Y23" s="24">
+        <v>0</v>
+      </c>
       <c r="Z23" s="24"/>
-      <c r="AA23" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA23" s="24"/>
       <c r="AB23" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AC23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD23" s="23"/>
+      <c r="AD23" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE23" s="23"/>
       <c r="AF23" s="23"/>
       <c r="AG23" s="23"/>
-      <c r="AH23" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH23" s="23"/>
       <c r="AI23" s="23" t="s">
         <v>22</v>
       </c>
@@ -2555,96 +2599,96 @@
         <v>22</v>
       </c>
       <c r="AK23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL23" s="27">
+      <c r="AM23" s="27">
         <v>512</v>
       </c>
-      <c r="AM23" s="27">
-        <v>256</v>
-      </c>
       <c r="AN23" s="27">
         <v>256</v>
       </c>
       <c r="AO23" s="27">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AP23" s="27">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AQ23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="27">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AR23" s="27">
-        <v>0</v>
-      </c>
       <c r="AS23" s="27">
         <v>0</v>
       </c>
+      <c r="AT23" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="25">
+      <c r="C24" s="25">
         <v>21</v>
       </c>
-      <c r="C24">
-        <v>256</v>
-      </c>
-      <c r="D24" s="25"/>
+      <c r="D24">
+        <v>256</v>
+      </c>
       <c r="E24" s="25"/>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25">
+      <c r="H24" s="25"/>
+      <c r="I24" s="25">
         <v>5650</v>
       </c>
-      <c r="I24" s="25">
+      <c r="J24" s="25">
         <v>0.67</v>
       </c>
-      <c r="J24" s="25">
+      <c r="K24" s="25">
         <v>1.32</v>
       </c>
-      <c r="K24" s="25"/>
       <c r="L24" s="25"/>
-      <c r="M24">
+      <c r="M24" s="25"/>
+      <c r="N24">
         <v>16</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>32</v>
       </c>
-      <c r="O24">
-        <v>64</v>
-      </c>
-      <c r="V24" s="22">
+      <c r="P24">
+        <v>64</v>
+      </c>
+      <c r="W24" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="W24" s="24">
-        <v>0</v>
-      </c>
       <c r="X24" s="24">
         <v>0</v>
       </c>
-      <c r="Y24" s="24"/>
+      <c r="Y24" s="24">
+        <v>0</v>
+      </c>
       <c r="Z24" s="24"/>
-      <c r="AA24" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA24" s="24"/>
       <c r="AB24" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AC24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD24" s="23"/>
+      <c r="AD24" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE24" s="23"/>
       <c r="AF24" s="23"/>
       <c r="AG24" s="23"/>
-      <c r="AH24" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH24" s="23"/>
       <c r="AI24" s="23" t="s">
         <v>22</v>
       </c>
@@ -2652,22 +2696,22 @@
         <v>22</v>
       </c>
       <c r="AK24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL24" s="27">
+      <c r="AM24" s="27">
         <v>512</v>
       </c>
-      <c r="AM24" s="27">
-        <v>256</v>
-      </c>
       <c r="AN24" s="27">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AO24" s="27">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AP24" s="27">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AQ24" s="27">
         <v>0</v>
@@ -2676,73 +2720,73 @@
         <v>0</v>
       </c>
       <c r="AS24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="27">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>22</v>
-      </c>
+    <row r="25" spans="1:46" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C25">
-        <v>256</v>
-      </c>
-      <c r="F25" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>256</v>
+      </c>
+      <c r="G25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>200</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>5200</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.61</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1.27</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.82</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>6750</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>8</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>16</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>32</v>
       </c>
-      <c r="V25" s="24">
-        <v>0</v>
-      </c>
       <c r="W25" s="24">
         <v>0</v>
       </c>
       <c r="X25" s="24">
         <v>0</v>
       </c>
-      <c r="Y25" s="24"/>
+      <c r="Y25" s="24">
+        <v>0</v>
+      </c>
       <c r="Z25" s="24"/>
-      <c r="AA25" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA25" s="24"/>
       <c r="AB25" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AC25" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD25" s="23"/>
+      <c r="AD25" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE25" s="23"/>
       <c r="AF25" s="23"/>
       <c r="AG25" s="23"/>
-      <c r="AH25" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH25" s="23"/>
       <c r="AI25" s="23" t="s">
         <v>22</v>
       </c>
@@ -2750,85 +2794,85 @@
         <v>22</v>
       </c>
       <c r="AK25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL25" s="23" t="s">
         <v>24</v>
-      </c>
-      <c r="AL25">
-        <v>32</v>
       </c>
       <c r="AM25">
         <v>32</v>
       </c>
-      <c r="AP25">
+      <c r="AN25">
+        <v>32</v>
+      </c>
+      <c r="AQ25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>23</v>
       </c>
-      <c r="C26">
-        <v>256</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="D26">
+        <v>256</v>
+      </c>
+      <c r="G26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>200</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>7900</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.48</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1.34</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.83</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>7800</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>8</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>16</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>32</v>
       </c>
-      <c r="V26" s="24">
-        <v>0</v>
-      </c>
       <c r="W26" s="24">
         <v>0</v>
       </c>
       <c r="X26" s="24">
         <v>0</v>
       </c>
-      <c r="Y26" s="24"/>
+      <c r="Y26" s="24">
+        <v>0</v>
+      </c>
       <c r="Z26" s="24"/>
-      <c r="AA26" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA26" s="24"/>
       <c r="AB26" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AC26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD26" s="23"/>
+      <c r="AD26" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE26" s="23"/>
       <c r="AF26" s="23"/>
       <c r="AG26" s="23"/>
-      <c r="AH26" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH26" s="23"/>
       <c r="AI26" s="23" t="s">
         <v>22</v>
       </c>
@@ -2836,82 +2880,83 @@
         <v>22</v>
       </c>
       <c r="AK26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL26" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL26">
-        <v>64</v>
-      </c>
       <c r="AM26">
         <v>64</v>
       </c>
-      <c r="AP26">
+      <c r="AN26">
+        <v>64</v>
+      </c>
+      <c r="AQ26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="27"/>
+      <c r="C27">
         <v>24</v>
       </c>
-      <c r="C27">
-        <v>256</v>
-      </c>
-      <c r="F27" s="27" t="s">
+      <c r="D27">
+        <v>256</v>
+      </c>
+      <c r="G27" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.02</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.03</v>
       </c>
-      <c r="M27" s="27">
+      <c r="N27" s="27">
         <v>8</v>
       </c>
-      <c r="N27" s="27">
+      <c r="O27" s="27">
         <v>16</v>
       </c>
-      <c r="O27" s="27">
+      <c r="P27" s="27">
         <v>32</v>
       </c>
-      <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
-      <c r="V27" s="27">
-        <v>0</v>
-      </c>
+      <c r="V27" s="27"/>
       <c r="W27" s="27">
         <v>0</v>
       </c>
       <c r="X27" s="27">
         <v>0</v>
       </c>
-      <c r="Y27" s="27"/>
+      <c r="Y27" s="27">
+        <v>0</v>
+      </c>
       <c r="Z27" s="27"/>
-      <c r="AA27" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA27" s="27"/>
       <c r="AB27" s="27" t="s">
         <v>22</v>
       </c>
       <c r="AC27" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AD27" s="27"/>
+      <c r="AD27" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="AE27" s="27"/>
       <c r="AF27" s="27"/>
       <c r="AG27" s="27"/>
-      <c r="AH27" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH27" s="27"/>
       <c r="AI27" s="27" t="s">
         <v>22</v>
       </c>
@@ -2919,75 +2964,75 @@
         <v>22</v>
       </c>
       <c r="AK27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL27" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AL27" s="27">
-        <v>128</v>
-      </c>
       <c r="AM27" s="27">
         <v>128</v>
       </c>
-      <c r="AP27">
+      <c r="AN27" s="27">
+        <v>128</v>
+      </c>
+      <c r="AQ27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>25</v>
       </c>
-      <c r="C28">
-        <v>256</v>
-      </c>
-      <c r="F28" s="27" t="s">
+      <c r="D28">
+        <v>256</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="M28" s="27">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="27">
         <v>16</v>
       </c>
-      <c r="N28" s="27">
+      <c r="O28" s="27">
         <v>32</v>
       </c>
-      <c r="O28" s="27">
-        <v>64</v>
-      </c>
-      <c r="P28" s="27"/>
+      <c r="P28" s="27">
+        <v>64</v>
+      </c>
       <c r="Q28" s="27"/>
-      <c r="V28" s="24">
-        <v>0</v>
-      </c>
+      <c r="R28" s="27"/>
       <c r="W28" s="24">
         <v>0</v>
       </c>
       <c r="X28" s="24">
         <v>0</v>
       </c>
-      <c r="Y28" s="24"/>
+      <c r="Y28" s="24">
+        <v>0</v>
+      </c>
       <c r="Z28" s="24"/>
-      <c r="AA28" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA28" s="24"/>
       <c r="AB28" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AC28" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD28" s="23"/>
+      <c r="AD28" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE28" s="23"/>
       <c r="AF28" s="23"/>
       <c r="AG28" s="23"/>
-      <c r="AH28" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH28" s="23"/>
       <c r="AI28" s="23" t="s">
         <v>22</v>
       </c>
@@ -2995,85 +3040,85 @@
         <v>22</v>
       </c>
       <c r="AK28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL28" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL28">
-        <v>128</v>
-      </c>
       <c r="AM28">
         <v>128</v>
       </c>
-      <c r="AP28">
+      <c r="AN28">
+        <v>128</v>
+      </c>
+      <c r="AQ28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>26</v>
       </c>
-      <c r="C29">
-        <v>256</v>
-      </c>
-      <c r="F29" s="27" t="s">
+      <c r="D29">
+        <v>256</v>
+      </c>
+      <c r="G29" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>200</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>11000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.72</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1.77</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.92</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>14800</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>8</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>16</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>32</v>
       </c>
-      <c r="V29" s="24">
-        <v>0</v>
-      </c>
       <c r="W29" s="24">
         <v>0</v>
       </c>
       <c r="X29" s="24">
         <v>0</v>
       </c>
-      <c r="Y29" s="24"/>
+      <c r="Y29" s="24">
+        <v>0</v>
+      </c>
       <c r="Z29" s="24"/>
-      <c r="AA29" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA29" s="24"/>
       <c r="AB29" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AC29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD29" s="23"/>
+      <c r="AD29" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE29" s="23"/>
       <c r="AF29" s="23"/>
       <c r="AG29" s="23"/>
-      <c r="AH29" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH29" s="23"/>
       <c r="AI29" s="23" t="s">
         <v>22</v>
       </c>
@@ -3081,11 +3126,11 @@
         <v>22</v>
       </c>
       <c r="AK29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL29">
-        <v>128</v>
-      </c>
       <c r="AM29">
         <v>128</v>
       </c>
@@ -3093,79 +3138,79 @@
         <v>128</v>
       </c>
       <c r="AO29">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AP29">
+        <v>64</v>
+      </c>
+      <c r="AQ29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>27</v>
       </c>
-      <c r="C30">
-        <v>128</v>
-      </c>
-      <c r="F30" s="27" t="s">
+      <c r="D30">
+        <v>128</v>
+      </c>
+      <c r="G30" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>200</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>14250</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.72</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.34</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.88</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>14900</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>8</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>16</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>32</v>
       </c>
-      <c r="V30" s="24">
-        <v>0</v>
-      </c>
       <c r="W30" s="24">
         <v>0</v>
       </c>
       <c r="X30" s="24">
         <v>0</v>
       </c>
-      <c r="Y30" s="24"/>
+      <c r="Y30" s="24">
+        <v>0</v>
+      </c>
       <c r="Z30" s="24"/>
-      <c r="AA30" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA30" s="24"/>
       <c r="AB30" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AC30" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD30" s="23"/>
+      <c r="AD30" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE30" s="23"/>
       <c r="AF30" s="23"/>
       <c r="AG30" s="23"/>
-      <c r="AH30" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH30" s="23"/>
       <c r="AI30" s="23" t="s">
         <v>22</v>
       </c>
@@ -3173,11 +3218,11 @@
         <v>22</v>
       </c>
       <c r="AK30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL30">
-        <v>128</v>
-      </c>
       <c r="AM30">
         <v>128</v>
       </c>
@@ -3185,54 +3230,54 @@
         <v>128</v>
       </c>
       <c r="AO30">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AP30">
+        <v>64</v>
+      </c>
+      <c r="AQ30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>28</v>
       </c>
-      <c r="C31">
-        <v>128</v>
-      </c>
-      <c r="F31" s="27" t="s">
+      <c r="D31">
+        <v>128</v>
+      </c>
+      <c r="G31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>200</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>26300</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.82</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.45</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.93</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>25000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>16</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>32</v>
       </c>
-      <c r="O31">
-        <v>64</v>
-      </c>
-      <c r="V31" s="24">
-        <v>0</v>
+      <c r="P31">
+        <v>64</v>
       </c>
       <c r="W31" s="24">
         <v>0</v>
@@ -3240,24 +3285,24 @@
       <c r="X31" s="24">
         <v>0</v>
       </c>
-      <c r="Y31" s="24"/>
+      <c r="Y31" s="24">
+        <v>0</v>
+      </c>
       <c r="Z31" s="24"/>
-      <c r="AA31" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA31" s="24"/>
       <c r="AB31" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AC31" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD31" s="23"/>
+      <c r="AD31" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE31" s="23"/>
       <c r="AF31" s="23"/>
       <c r="AG31" s="23"/>
-      <c r="AH31" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH31" s="23"/>
       <c r="AI31" s="23" t="s">
         <v>22</v>
       </c>
@@ -3265,11 +3310,11 @@
         <v>22</v>
       </c>
       <c r="AK31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL31" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL31">
-        <v>128</v>
-      </c>
       <c r="AM31">
         <v>128</v>
       </c>
@@ -3277,54 +3322,54 @@
         <v>128</v>
       </c>
       <c r="AO31">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AP31">
+        <v>64</v>
+      </c>
+      <c r="AQ31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32">
+    <row r="32" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32">
         <v>29</v>
       </c>
-      <c r="C32">
-        <v>128</v>
-      </c>
-      <c r="F32" s="27" t="s">
+      <c r="D32">
+        <v>128</v>
+      </c>
+      <c r="G32" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>200</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>25000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.84899999999999998</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1.99</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.94699999999999995</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>27650</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>32</v>
       </c>
-      <c r="N32">
-        <v>64</v>
-      </c>
       <c r="O32">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="P32">
         <v>128</v>
       </c>
-      <c r="V32" s="24">
-        <v>0</v>
+      <c r="Q32">
+        <v>128</v>
       </c>
       <c r="W32" s="24">
         <v>0</v>
@@ -3332,24 +3377,24 @@
       <c r="X32" s="24">
         <v>0</v>
       </c>
-      <c r="Y32" s="24"/>
+      <c r="Y32" s="24">
+        <v>0</v>
+      </c>
       <c r="Z32" s="24"/>
-      <c r="AA32" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA32" s="24"/>
       <c r="AB32" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AC32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD32" s="23"/>
+      <c r="AD32" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE32" s="23"/>
       <c r="AF32" s="23"/>
       <c r="AG32" s="23"/>
-      <c r="AH32" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH32" s="23"/>
       <c r="AI32" s="23" t="s">
         <v>22</v>
       </c>
@@ -3357,11 +3402,11 @@
         <v>22</v>
       </c>
       <c r="AK32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL32">
-        <v>128</v>
-      </c>
       <c r="AM32">
         <v>128</v>
       </c>
@@ -3369,62 +3414,62 @@
         <v>128</v>
       </c>
       <c r="AO32">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AP32">
+        <v>64</v>
+      </c>
+      <c r="AQ32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="25">
+      <c r="C33" s="25">
         <v>30</v>
       </c>
-      <c r="C33" s="25">
-        <v>128</v>
-      </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="25">
+        <v>128</v>
+      </c>
       <c r="E33" s="25"/>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="25"/>
+      <c r="G33" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>200</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>28250</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.79</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>2.34</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.96</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>26500</v>
       </c>
-      <c r="M33">
-        <v>64</v>
-      </c>
       <c r="N33">
         <v>64</v>
       </c>
       <c r="O33">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="P33">
         <v>128</v>
       </c>
       <c r="Q33">
-        <v>256</v>
-      </c>
-      <c r="V33" s="24">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="R33">
+        <v>256</v>
       </c>
       <c r="W33" s="24">
         <v>0</v>
@@ -3432,24 +3477,24 @@
       <c r="X33" s="24">
         <v>0</v>
       </c>
-      <c r="Y33" s="24"/>
+      <c r="Y33" s="24">
+        <v>0</v>
+      </c>
       <c r="Z33" s="24"/>
-      <c r="AA33" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AA33" s="24"/>
       <c r="AB33" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AC33" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD33" s="23"/>
+      <c r="AD33" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE33" s="23"/>
       <c r="AF33" s="23"/>
       <c r="AG33" s="23"/>
-      <c r="AH33" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH33" s="23"/>
       <c r="AI33" s="23" t="s">
         <v>22</v>
       </c>
@@ -3457,78 +3502,78 @@
         <v>22</v>
       </c>
       <c r="AK33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL33" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL33">
-        <v>256</v>
-      </c>
       <c r="AM33">
         <v>256</v>
       </c>
       <c r="AN33">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AO33">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AP33">
+        <v>64</v>
+      </c>
+      <c r="AQ33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>31</v>
       </c>
-      <c r="C34">
-        <v>128</v>
-      </c>
-      <c r="F34" s="27" t="s">
+      <c r="D34">
+        <v>128</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>200</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>4100</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.32</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1.01</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.65</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>4750</v>
       </c>
-      <c r="M34">
-        <v>64</v>
-      </c>
       <c r="N34">
         <v>64</v>
       </c>
       <c r="O34">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="P34">
         <v>128</v>
       </c>
       <c r="Q34">
-        <v>256</v>
-      </c>
-      <c r="V34" s="22">
-        <v>1.0000000000000001E-5</v>
+        <v>128</v>
+      </c>
+      <c r="R34">
+        <v>256</v>
       </c>
       <c r="W34" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X34" s="24">
-        <v>0</v>
+      <c r="X34" s="22">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y34" s="24">
         <v>0</v>
@@ -3536,8 +3581,8 @@
       <c r="Z34" s="24">
         <v>0</v>
       </c>
-      <c r="AA34" s="23" t="s">
-        <v>22</v>
+      <c r="AA34" s="24">
+        <v>0</v>
       </c>
       <c r="AB34" s="23" t="s">
         <v>22</v>
@@ -3545,13 +3590,13 @@
       <c r="AC34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD34" s="23"/>
+      <c r="AD34" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE34" s="23"/>
       <c r="AF34" s="23"/>
       <c r="AG34" s="23"/>
-      <c r="AH34" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH34" s="23"/>
       <c r="AI34" s="23" t="s">
         <v>22</v>
       </c>
@@ -3559,22 +3604,22 @@
         <v>22</v>
       </c>
       <c r="AK34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL34" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>512</v>
       </c>
-      <c r="AM34">
-        <v>256</v>
-      </c>
       <c r="AN34">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AO34">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -3582,52 +3627,52 @@
       <c r="AR34">
         <v>0</v>
       </c>
-      <c r="AS34" s="30">
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="30">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>32</v>
       </c>
-      <c r="C35">
-        <v>128</v>
-      </c>
-      <c r="F35" s="27" t="s">
+      <c r="D35">
+        <v>128</v>
+      </c>
+      <c r="G35" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>200</v>
       </c>
-      <c r="I35" s="27">
-        <v>0</v>
-      </c>
       <c r="J35" s="27">
         <v>0</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K35" s="27">
+        <v>0</v>
+      </c>
+      <c r="L35" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="M35">
-        <v>64</v>
-      </c>
       <c r="N35">
         <v>64</v>
       </c>
       <c r="O35">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="P35">
         <v>128</v>
       </c>
       <c r="Q35">
-        <v>256</v>
-      </c>
-      <c r="V35" s="24">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="R35">
+        <v>256</v>
       </c>
       <c r="W35" s="24">
         <v>0</v>
@@ -3641,8 +3686,8 @@
       <c r="Z35" s="24">
         <v>0</v>
       </c>
-      <c r="AA35" s="23" t="s">
-        <v>22</v>
+      <c r="AA35" s="24">
+        <v>0</v>
       </c>
       <c r="AB35" s="23" t="s">
         <v>22</v>
@@ -3650,13 +3695,13 @@
       <c r="AC35" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD35" s="23"/>
+      <c r="AD35" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE35" s="23"/>
       <c r="AF35" s="23"/>
       <c r="AG35" s="23"/>
-      <c r="AH35" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH35" s="23"/>
       <c r="AI35" s="23" t="s">
         <v>22</v>
       </c>
@@ -3664,22 +3709,22 @@
         <v>22</v>
       </c>
       <c r="AK35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>512</v>
       </c>
-      <c r="AM35">
-        <v>256</v>
-      </c>
       <c r="AN35">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AO35">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AQ35">
         <v>0</v>
@@ -3687,56 +3732,56 @@
       <c r="AR35">
         <v>0</v>
       </c>
-      <c r="AS35" s="30">
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="30">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="25">
+        <v>77</v>
+      </c>
+      <c r="C36" s="25">
         <v>33</v>
       </c>
-      <c r="C36" s="25">
-        <v>128</v>
-      </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="25">
+        <v>128</v>
+      </c>
       <c r="E36" s="25"/>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="25"/>
+      <c r="G36" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>200</v>
       </c>
-      <c r="H36" s="25">
+      <c r="I36" s="25">
         <v>9949</v>
       </c>
-      <c r="I36" s="25">
+      <c r="J36" s="25">
         <v>0.7</v>
       </c>
-      <c r="J36" s="25">
+      <c r="K36" s="25">
         <v>1.83</v>
       </c>
-      <c r="K36" s="25"/>
       <c r="L36" s="25"/>
-      <c r="M36">
-        <v>64</v>
-      </c>
+      <c r="M36" s="25"/>
       <c r="N36">
         <v>64</v>
       </c>
       <c r="O36">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="P36">
         <v>128</v>
       </c>
       <c r="Q36">
-        <v>256</v>
-      </c>
-      <c r="V36" s="24">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="R36">
+        <v>256</v>
       </c>
       <c r="W36" s="24">
         <v>0</v>
@@ -3750,8 +3795,8 @@
       <c r="Z36" s="24">
         <v>0</v>
       </c>
-      <c r="AA36" s="23" t="s">
-        <v>22</v>
+      <c r="AA36" s="24">
+        <v>0</v>
       </c>
       <c r="AB36" s="23" t="s">
         <v>22</v>
@@ -3759,13 +3804,13 @@
       <c r="AC36" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD36" s="23"/>
+      <c r="AD36" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE36" s="23"/>
       <c r="AF36" s="23"/>
       <c r="AG36" s="23"/>
-      <c r="AH36" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH36" s="23"/>
       <c r="AI36" s="23" t="s">
         <v>22</v>
       </c>
@@ -3773,22 +3818,22 @@
         <v>22</v>
       </c>
       <c r="AK36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL36" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>512</v>
       </c>
-      <c r="AM36">
-        <v>256</v>
-      </c>
       <c r="AN36">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AO36">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -3799,57 +3844,60 @@
       <c r="AS36">
         <v>0</v>
       </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:45" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="25">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="25">
         <v>34</v>
       </c>
-      <c r="C37" s="25">
-        <v>128</v>
-      </c>
-      <c r="D37" s="25"/>
+      <c r="D37" s="25">
+        <v>128</v>
+      </c>
       <c r="E37" s="25"/>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="25"/>
+      <c r="G37" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>90</v>
       </c>
-      <c r="H37" s="25">
+      <c r="I37" s="25">
         <v>8200</v>
       </c>
-      <c r="I37" s="25">
+      <c r="J37" s="25">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J37" s="25">
+      <c r="K37" s="25">
         <v>2.67</v>
       </c>
-      <c r="K37" s="25">
+      <c r="L37" s="25">
         <v>0.92400000000000004</v>
       </c>
-      <c r="L37" s="25">
+      <c r="M37" s="25">
         <v>23550</v>
       </c>
-      <c r="M37">
-        <v>64</v>
-      </c>
       <c r="N37">
         <v>64</v>
       </c>
       <c r="O37">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="P37">
         <v>128</v>
       </c>
       <c r="Q37">
-        <v>256</v>
-      </c>
-      <c r="V37" s="24">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="R37">
+        <v>256</v>
       </c>
       <c r="W37" s="24">
         <v>0</v>
@@ -3863,8 +3911,8 @@
       <c r="Z37" s="24">
         <v>0</v>
       </c>
-      <c r="AA37" s="23" t="s">
-        <v>22</v>
+      <c r="AA37" s="24">
+        <v>0</v>
       </c>
       <c r="AB37" s="23" t="s">
         <v>22</v>
@@ -3872,13 +3920,13 @@
       <c r="AC37" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD37" s="23"/>
+      <c r="AD37" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE37" s="23"/>
       <c r="AF37" s="23"/>
       <c r="AG37" s="23"/>
-      <c r="AH37" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH37" s="23"/>
       <c r="AI37" s="23" t="s">
         <v>22</v>
       </c>
@@ -3886,22 +3934,22 @@
         <v>22</v>
       </c>
       <c r="AK37" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>512</v>
       </c>
-      <c r="AM37">
-        <v>256</v>
-      </c>
       <c r="AN37">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AO37">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -3912,37 +3960,40 @@
       <c r="AS37">
         <v>0</v>
       </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:45" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="25">
+    <row r="38" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="25">
         <v>35</v>
       </c>
-      <c r="C38" s="25">
-        <v>128</v>
-      </c>
-      <c r="D38">
+      <c r="D38" s="25">
+        <v>128</v>
+      </c>
+      <c r="E38">
         <v>0.05</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.9</v>
       </c>
-      <c r="M38">
-        <v>64</v>
-      </c>
       <c r="N38">
         <v>64</v>
       </c>
       <c r="O38">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="P38">
         <v>128</v>
       </c>
       <c r="Q38">
-        <v>256</v>
-      </c>
-      <c r="V38" s="24">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="R38">
+        <v>256</v>
       </c>
       <c r="W38" s="24">
         <v>0</v>
@@ -3956,8 +4007,8 @@
       <c r="Z38" s="24">
         <v>0</v>
       </c>
-      <c r="AA38" s="23" t="s">
-        <v>22</v>
+      <c r="AA38" s="24">
+        <v>0</v>
       </c>
       <c r="AB38" s="23" t="s">
         <v>22</v>
@@ -3965,13 +4016,13 @@
       <c r="AC38" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AD38" s="23"/>
+      <c r="AD38" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AE38" s="23"/>
       <c r="AF38" s="23"/>
       <c r="AG38" s="23"/>
-      <c r="AH38" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH38" s="23"/>
       <c r="AI38" s="23" t="s">
         <v>22</v>
       </c>
@@ -3979,22 +4030,22 @@
         <v>22</v>
       </c>
       <c r="AK38" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL38" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>512</v>
       </c>
-      <c r="AM38">
-        <v>256</v>
-      </c>
       <c r="AN38">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AO38">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -4003,14 +4054,302 @@
         <v>0</v>
       </c>
       <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="25">
+        <v>36</v>
+      </c>
+      <c r="D39" s="35">
+        <v>256</v>
+      </c>
+      <c r="E39">
+        <v>0.05</v>
+      </c>
+      <c r="F39" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="34">
+        <v>45</v>
+      </c>
+      <c r="N39">
+        <v>64</v>
+      </c>
+      <c r="O39">
+        <v>64</v>
+      </c>
+      <c r="P39">
+        <v>128</v>
+      </c>
+      <c r="Q39">
+        <v>128</v>
+      </c>
+      <c r="R39">
+        <v>256</v>
+      </c>
+      <c r="W39" s="24">
+        <v>0</v>
+      </c>
+      <c r="X39" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC39" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD39" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ39" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK39" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL39" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM39">
+        <v>512</v>
+      </c>
+      <c r="AN39">
+        <v>256</v>
+      </c>
+      <c r="AO39">
+        <v>128</v>
+      </c>
+      <c r="AP39">
+        <v>64</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="25">
+        <v>37</v>
+      </c>
+      <c r="D40" s="25">
+        <v>128</v>
+      </c>
+      <c r="E40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.75</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="34">
+        <v>90</v>
+      </c>
+      <c r="N40">
+        <v>64</v>
+      </c>
+      <c r="O40">
+        <v>64</v>
+      </c>
+      <c r="P40">
+        <v>128</v>
+      </c>
+      <c r="Q40">
+        <v>128</v>
+      </c>
+      <c r="R40">
+        <v>256</v>
+      </c>
+      <c r="W40" s="24">
+        <v>0</v>
+      </c>
+      <c r="X40" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL40" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM40">
+        <v>512</v>
+      </c>
+      <c r="AN40">
+        <v>256</v>
+      </c>
+      <c r="AO40">
+        <v>128</v>
+      </c>
+      <c r="AP40">
+        <v>64</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>64</v>
+      </c>
+      <c r="O41">
+        <v>64</v>
+      </c>
+      <c r="P41">
+        <v>128</v>
+      </c>
+      <c r="Q41">
+        <v>128</v>
+      </c>
+      <c r="R41">
+        <v>256</v>
+      </c>
+      <c r="W41" s="24">
+        <v>0</v>
+      </c>
+      <c r="X41" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC41" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD41" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ41" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK41" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL41" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM41">
+        <v>512</v>
+      </c>
+      <c r="AN41">
+        <v>256</v>
+      </c>
+      <c r="AO41">
+        <v>128</v>
+      </c>
+      <c r="AP41">
+        <v>64</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:W1"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="C1:X1"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prediction based on convolutional neural network/code/NewModels1/worklog/填充方式与池化方式.xlsx
+++ b/Prediction based on convolutional neural network/code/NewModels1/worklog/填充方式与池化方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CFA4697-1041-453E-BF1C-41CAA4EAF9F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{663CC2DD-6BA3-410B-917F-28262300BD33}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="87">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -359,6 +359,14 @@
   </si>
   <si>
     <t>训练loss在6000次后趋于平稳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>q238b T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六层</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1026,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT41"/>
+  <dimension ref="A1:AU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="AC13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU47" sqref="AU47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1040,15 +1048,15 @@
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="21.375" customWidth="1"/>
     <col min="11" max="13" width="19.875" customWidth="1"/>
-    <col min="19" max="19" width="17.875" customWidth="1"/>
-    <col min="23" max="24" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="21.5" customWidth="1"/>
-    <col min="38" max="38" width="11.625" customWidth="1"/>
-    <col min="39" max="39" width="22.5" customWidth="1"/>
-    <col min="40" max="42" width="19.125" customWidth="1"/>
+    <col min="20" max="20" width="17.875" customWidth="1"/>
+    <col min="24" max="25" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="21.5" customWidth="1"/>
+    <col min="39" max="39" width="11.625" customWidth="1"/>
+    <col min="40" max="40" width="22.5" customWidth="1"/>
+    <col min="41" max="43" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="31" t="s">
         <v>27</v>
       </c>
@@ -1073,15 +1081,16 @@
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
       <c r="X1" s="31"/>
-      <c r="Y1" s="6"/>
+      <c r="Y1" s="31"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1125,53 +1134,54 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="28"/>
+      <c r="T2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="13"/>
       <c r="V2" s="13"/>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="13"/>
+      <c r="X2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="14"/>
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
       <c r="AA2" s="14"/>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AG2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="32"/>
       <c r="AH2" s="32"/>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="33"/>
       <c r="AK2" s="33"/>
-      <c r="AL2" s="15" t="s">
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="15" t="s">
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="16" t="s">
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="I3" s="5"/>
       <c r="N3" t="s">
         <v>17</v>
@@ -1188,62 +1198,65 @@
       <c r="R3" t="s">
         <v>68</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" t="s">
         <v>17</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>18</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>19</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>17</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>19</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>17</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>18</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>19</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>17</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>18</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>19</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>2</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>1</v>
       </c>
@@ -1280,11 +1293,8 @@
       <c r="P4">
         <v>256</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>21</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1293,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>1.0000000000000001E-5</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>1.0000000000000001E-5</v>
@@ -1301,8 +1311,8 @@
       <c r="Y4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB4" t="s">
-        <v>22</v>
+      <c r="Z4">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AC4" t="s">
         <v>22</v>
@@ -1311,10 +1321,10 @@
         <v>22</v>
       </c>
       <c r="AE4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF4" t="s">
         <v>23</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -1322,8 +1332,8 @@
       <c r="AH4">
         <v>1</v>
       </c>
-      <c r="AI4" t="s">
-        <v>22</v>
+      <c r="AI4">
+        <v>1</v>
       </c>
       <c r="AJ4" t="s">
         <v>22</v>
@@ -1332,16 +1342,19 @@
         <v>22</v>
       </c>
       <c r="AL4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM4" t="s">
         <v>24</v>
       </c>
-      <c r="AM4">
-        <v>256</v>
-      </c>
-      <c r="AQ4">
+      <c r="AN4">
+        <v>256</v>
+      </c>
+      <c r="AR4">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1372,16 +1385,13 @@
       <c r="P5">
         <v>256</v>
       </c>
-      <c r="AB5" t="s">
-        <v>28</v>
-      </c>
       <c r="AC5" t="s">
         <v>28</v>
       </c>
       <c r="AD5" t="s">
         <v>28</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AE5" t="s">
         <v>28</v>
       </c>
       <c r="AJ5" t="s">
@@ -1391,16 +1401,19 @@
         <v>28</v>
       </c>
       <c r="AL5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM5" t="s">
         <v>32</v>
       </c>
-      <c r="AM5">
-        <v>256</v>
-      </c>
-      <c r="AQ5">
+      <c r="AN5">
+        <v>256</v>
+      </c>
+      <c r="AR5">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>3</v>
       </c>
@@ -1428,16 +1441,13 @@
       <c r="P6">
         <v>256</v>
       </c>
-      <c r="AB6" t="s">
-        <v>33</v>
-      </c>
       <c r="AC6" t="s">
         <v>33</v>
       </c>
       <c r="AD6" t="s">
         <v>33</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AE6" t="s">
         <v>33</v>
       </c>
       <c r="AJ6" t="s">
@@ -1447,16 +1457,19 @@
         <v>33</v>
       </c>
       <c r="AL6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM6" t="s">
         <v>34</v>
       </c>
-      <c r="AM6">
-        <v>256</v>
-      </c>
-      <c r="AQ6">
+      <c r="AN6">
+        <v>256</v>
+      </c>
+      <c r="AR6">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -1487,17 +1500,14 @@
       <c r="P7">
         <v>256</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>28</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>36</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>37</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>36</v>
       </c>
       <c r="AJ7" t="s">
         <v>36</v>
@@ -1506,16 +1516,19 @@
         <v>36</v>
       </c>
       <c r="AL7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM7" t="s">
         <v>34</v>
       </c>
-      <c r="AM7">
-        <v>256</v>
-      </c>
-      <c r="AQ7">
+      <c r="AN7">
+        <v>256</v>
+      </c>
+      <c r="AR7">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>5</v>
       </c>
@@ -1540,22 +1553,19 @@
       <c r="P8">
         <v>256</v>
       </c>
-      <c r="AB8" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="AC8" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AD8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
-      <c r="AI8" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="AI8" s="19"/>
       <c r="AJ8" s="19" t="s">
         <v>28</v>
       </c>
@@ -1563,16 +1573,19 @@
         <v>28</v>
       </c>
       <c r="AL8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AM8">
-        <v>256</v>
-      </c>
-      <c r="AQ8">
+      <c r="AN8">
+        <v>256</v>
+      </c>
+      <c r="AR8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>6</v>
       </c>
@@ -1597,22 +1610,19 @@
       <c r="P9">
         <v>256</v>
       </c>
-      <c r="AB9" s="20" t="s">
-        <v>22</v>
-      </c>
       <c r="AC9" s="20" t="s">
         <v>22</v>
       </c>
       <c r="AD9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AE9" s="20"/>
+      <c r="AE9" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="AF9" s="20"/>
       <c r="AG9" s="20"/>
       <c r="AH9" s="20"/>
-      <c r="AI9" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI9" s="20"/>
       <c r="AJ9" s="20" t="s">
         <v>22</v>
       </c>
@@ -1620,16 +1630,19 @@
         <v>22</v>
       </c>
       <c r="AL9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AM9">
-        <v>256</v>
-      </c>
-      <c r="AQ9">
+      <c r="AN9">
+        <v>256</v>
+      </c>
+      <c r="AR9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1654,22 +1667,19 @@
       <c r="P10">
         <v>256</v>
       </c>
-      <c r="AB10" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="AC10" s="20" t="s">
         <v>28</v>
       </c>
       <c r="AD10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AE10" s="20"/>
+      <c r="AE10" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="AF10" s="20"/>
       <c r="AG10" s="20"/>
       <c r="AH10" s="20"/>
-      <c r="AI10" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="AI10" s="20"/>
       <c r="AJ10" s="20" t="s">
         <v>28</v>
       </c>
@@ -1677,16 +1687,19 @@
         <v>28</v>
       </c>
       <c r="AL10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AM10">
-        <v>256</v>
-      </c>
-      <c r="AQ10">
+      <c r="AN10">
+        <v>256</v>
+      </c>
+      <c r="AR10">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>8</v>
       </c>
@@ -1727,22 +1740,20 @@
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
       <c r="AA11" s="25"/>
-      <c r="AB11" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB11" s="25"/>
       <c r="AC11" s="26" t="s">
         <v>22</v>
       </c>
       <c r="AD11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AE11" s="26"/>
+      <c r="AE11" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
       <c r="AH11" s="26"/>
-      <c r="AI11" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI11" s="26"/>
       <c r="AJ11" s="26" t="s">
         <v>22</v>
       </c>
@@ -1750,16 +1761,19 @@
         <v>22</v>
       </c>
       <c r="AL11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AM11" s="25">
-        <v>256</v>
-      </c>
-      <c r="AQ11">
+      <c r="AN11" s="25">
+        <v>256</v>
+      </c>
+      <c r="AR11">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1781,22 +1795,19 @@
       <c r="P12">
         <v>256</v>
       </c>
-      <c r="AB12" s="19" t="s">
-        <v>22</v>
-      </c>
       <c r="AC12" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AD12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AE12" s="19"/>
+      <c r="AE12" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
-      <c r="AI12" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI12" s="19"/>
       <c r="AJ12" s="19" t="s">
         <v>22</v>
       </c>
@@ -1804,19 +1815,22 @@
         <v>22</v>
       </c>
       <c r="AL12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AM12">
-        <v>256</v>
-      </c>
       <c r="AN12">
-        <v>128</v>
-      </c>
-      <c r="AQ12">
+        <v>256</v>
+      </c>
+      <c r="AO12">
+        <v>128</v>
+      </c>
+      <c r="AR12">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1838,22 +1852,19 @@
       <c r="P13">
         <v>256</v>
       </c>
-      <c r="AB13" s="19" t="s">
-        <v>22</v>
-      </c>
       <c r="AC13" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AD13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AE13" s="19"/>
+      <c r="AE13" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
-      <c r="AI13" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI13" s="19"/>
       <c r="AJ13" s="19" t="s">
         <v>22</v>
       </c>
@@ -1861,22 +1872,25 @@
         <v>22</v>
       </c>
       <c r="AL13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>43</v>
       </c>
-      <c r="AN13">
-        <v>256</v>
-      </c>
       <c r="AO13">
-        <v>128</v>
-      </c>
-      <c r="AQ13">
+        <v>256</v>
+      </c>
+      <c r="AP13">
+        <v>128</v>
+      </c>
+      <c r="AR13">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1898,17 +1912,14 @@
       <c r="P14">
         <v>256</v>
       </c>
-      <c r="W14">
-        <v>5.0000000000000004E-6</v>
-      </c>
       <c r="X14">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="Y14">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="AB14" s="19" t="s">
-        <v>22</v>
+      <c r="Z14">
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="AC14" s="19" t="s">
         <v>22</v>
@@ -1916,13 +1927,13 @@
       <c r="AD14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AE14" s="19"/>
+      <c r="AE14" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
-      <c r="AI14" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI14" s="19"/>
       <c r="AJ14" s="19" t="s">
         <v>22</v>
       </c>
@@ -1930,22 +1941,25 @@
         <v>22</v>
       </c>
       <c r="AL14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>44</v>
       </c>
-      <c r="AN14">
-        <v>256</v>
-      </c>
       <c r="AO14">
-        <v>128</v>
-      </c>
-      <c r="AQ14">
+        <v>256</v>
+      </c>
+      <c r="AP14">
+        <v>128</v>
+      </c>
+      <c r="AR14">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1967,17 +1981,14 @@
       <c r="P15">
         <v>128</v>
       </c>
-      <c r="W15">
-        <v>1.0000000000000001E-5</v>
-      </c>
       <c r="X15">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB15" s="19" t="s">
-        <v>22</v>
+      <c r="Z15">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AC15" s="19" t="s">
         <v>22</v>
@@ -1985,13 +1996,13 @@
       <c r="AD15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AE15" s="19"/>
+      <c r="AE15" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
-      <c r="AI15" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI15" s="19"/>
       <c r="AJ15" s="19" t="s">
         <v>22</v>
       </c>
@@ -1999,22 +2010,25 @@
         <v>22</v>
       </c>
       <c r="AL15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>512</v>
       </c>
-      <c r="AN15">
-        <v>256</v>
-      </c>
       <c r="AO15">
-        <v>128</v>
-      </c>
-      <c r="AQ15">
+        <v>256</v>
+      </c>
+      <c r="AP15">
+        <v>128</v>
+      </c>
+      <c r="AR15">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2045,25 +2059,22 @@
       <c r="P16">
         <v>128</v>
       </c>
-      <c r="W16" s="19">
+      <c r="X16" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB16" s="19" t="s">
-        <v>22</v>
-      </c>
       <c r="AC16" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AD16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AE16" s="19"/>
+      <c r="AE16" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
-      <c r="AI16" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI16" s="19"/>
       <c r="AJ16" s="19" t="s">
         <v>22</v>
       </c>
@@ -2071,22 +2082,25 @@
         <v>22</v>
       </c>
       <c r="AL16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AM16" s="19">
+      <c r="AN16" s="19">
         <v>512</v>
       </c>
-      <c r="AN16" s="19">
-        <v>256</v>
-      </c>
       <c r="AO16" s="19">
-        <v>128</v>
-      </c>
-      <c r="AQ16" s="23">
+        <v>256</v>
+      </c>
+      <c r="AP16" s="19">
+        <v>128</v>
+      </c>
+      <c r="AR16" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2119,25 +2133,23 @@
       </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
-      <c r="W17" s="19">
+      <c r="S17" s="25"/>
+      <c r="X17" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AB17" s="19" t="s">
-        <v>22</v>
-      </c>
       <c r="AC17" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AD17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AE17" s="19"/>
+      <c r="AE17" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
-      <c r="AI17" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI17" s="19"/>
       <c r="AJ17" s="19" t="s">
         <v>22</v>
       </c>
@@ -2145,22 +2157,25 @@
         <v>22</v>
       </c>
       <c r="AL17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AM17" s="19">
+      <c r="AN17" s="19">
         <v>512</v>
       </c>
-      <c r="AN17" s="19">
-        <v>256</v>
-      </c>
       <c r="AO17" s="19">
-        <v>128</v>
-      </c>
-      <c r="AQ17" s="23">
+        <v>256</v>
+      </c>
+      <c r="AP17" s="19">
+        <v>128</v>
+      </c>
+      <c r="AR17" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>15</v>
       </c>
@@ -2181,33 +2196,31 @@
       </c>
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
-      <c r="W18" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
+      <c r="S18" s="25"/>
       <c r="X18" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y18" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Z18" s="19"/>
+      <c r="Z18" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="AA18" s="19"/>
-      <c r="AB18" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB18" s="19"/>
       <c r="AC18" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AD18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AE18" s="19"/>
+      <c r="AE18" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
-      <c r="AI18" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI18" s="19"/>
       <c r="AJ18" s="19" t="s">
         <v>22</v>
       </c>
@@ -2215,22 +2228,25 @@
         <v>22</v>
       </c>
       <c r="AL18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AM18" s="19">
+      <c r="AN18" s="19">
         <v>512</v>
       </c>
-      <c r="AN18" s="19">
-        <v>256</v>
-      </c>
       <c r="AO18" s="19">
-        <v>128</v>
-      </c>
-      <c r="AQ18" s="19">
+        <v>256</v>
+      </c>
+      <c r="AP18" s="19">
+        <v>128</v>
+      </c>
+      <c r="AR18" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>16</v>
       </c>
@@ -2260,33 +2276,31 @@
       </c>
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
-      <c r="W19" s="19">
-        <v>1.0000000000000001E-5</v>
-      </c>
+      <c r="S19" s="25"/>
       <c r="X19" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y19" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Z19" s="19"/>
+      <c r="Z19" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="AA19" s="19"/>
-      <c r="AB19" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB19" s="19"/>
       <c r="AC19" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AD19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AE19" s="19"/>
+      <c r="AE19" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
-      <c r="AI19" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI19" s="19"/>
       <c r="AJ19" s="19" t="s">
         <v>22</v>
       </c>
@@ -2294,25 +2308,28 @@
         <v>22</v>
       </c>
       <c r="AL19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>512</v>
       </c>
-      <c r="AN19">
-        <v>256</v>
-      </c>
       <c r="AO19">
-        <v>128</v>
-      </c>
-      <c r="AQ19">
-        <v>1.0000000000000001E-5</v>
+        <v>256</v>
+      </c>
+      <c r="AP19">
+        <v>128</v>
       </c>
       <c r="AR19">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="AS19">
+        <v>1.0000000000000001E-5</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2343,33 +2360,30 @@
       <c r="P20">
         <v>64</v>
       </c>
-      <c r="W20" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
       <c r="X20" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y20" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Z20" s="22"/>
+      <c r="Z20" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="AA20" s="22"/>
-      <c r="AB20" s="22" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB20" s="22"/>
       <c r="AC20" s="22" t="s">
         <v>22</v>
       </c>
       <c r="AD20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AE20" s="22"/>
+      <c r="AE20" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="AF20" s="22"/>
       <c r="AG20" s="22"/>
       <c r="AH20" s="22"/>
-      <c r="AI20" s="22" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI20" s="22"/>
       <c r="AJ20" s="22" t="s">
         <v>22</v>
       </c>
@@ -2377,22 +2391,25 @@
         <v>22</v>
       </c>
       <c r="AL20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>512</v>
       </c>
-      <c r="AN20">
-        <v>256</v>
-      </c>
       <c r="AO20">
-        <v>128</v>
-      </c>
-      <c r="AQ20">
+        <v>256</v>
+      </c>
+      <c r="AP20">
+        <v>128</v>
+      </c>
+      <c r="AR20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2414,33 +2431,30 @@
       <c r="P21">
         <v>64</v>
       </c>
-      <c r="W21" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
       <c r="X21" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y21" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Z21" s="22"/>
+      <c r="Z21" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="AA21" s="22"/>
-      <c r="AB21" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="AB21" s="22"/>
       <c r="AC21" s="22" t="s">
         <v>28</v>
       </c>
       <c r="AD21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AE21" s="22"/>
+      <c r="AE21" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
       <c r="AH21" s="22"/>
-      <c r="AI21" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="AI21" s="22"/>
       <c r="AJ21" s="22" t="s">
         <v>28</v>
       </c>
@@ -2448,22 +2462,25 @@
         <v>28</v>
       </c>
       <c r="AL21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>512</v>
       </c>
-      <c r="AN21">
-        <v>256</v>
-      </c>
       <c r="AO21">
-        <v>128</v>
-      </c>
-      <c r="AQ21">
+        <v>256</v>
+      </c>
+      <c r="AP21">
+        <v>128</v>
+      </c>
+      <c r="AR21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2494,33 +2511,30 @@
       <c r="P22">
         <v>64</v>
       </c>
-      <c r="W22" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
       <c r="X22" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y22" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Z22" s="22"/>
+      <c r="Z22" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="AA22" s="22"/>
-      <c r="AB22" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="AB22" s="22"/>
       <c r="AC22" s="22" t="s">
         <v>28</v>
       </c>
       <c r="AD22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AE22" s="22"/>
+      <c r="AE22" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="AF22" s="22"/>
       <c r="AG22" s="22"/>
       <c r="AH22" s="22"/>
-      <c r="AI22" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="AI22" s="22"/>
       <c r="AJ22" s="22" t="s">
         <v>28</v>
       </c>
@@ -2528,22 +2542,25 @@
         <v>28</v>
       </c>
       <c r="AL22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>512</v>
       </c>
-      <c r="AN22">
-        <v>256</v>
-      </c>
       <c r="AO22">
-        <v>128</v>
-      </c>
-      <c r="AQ22">
+        <v>256</v>
+      </c>
+      <c r="AP22">
+        <v>128</v>
+      </c>
+      <c r="AR22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2568,33 +2585,30 @@
       <c r="P23">
         <v>64</v>
       </c>
-      <c r="W23" s="24">
-        <v>0</v>
-      </c>
       <c r="X23" s="24">
         <v>0</v>
       </c>
       <c r="Y23" s="24">
         <v>0</v>
       </c>
-      <c r="Z23" s="24"/>
+      <c r="Z23" s="24">
+        <v>0</v>
+      </c>
       <c r="AA23" s="24"/>
-      <c r="AB23" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB23" s="24"/>
       <c r="AC23" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AD23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE23" s="23"/>
+      <c r="AE23" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF23" s="23"/>
       <c r="AG23" s="23"/>
       <c r="AH23" s="23"/>
-      <c r="AI23" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI23" s="23"/>
       <c r="AJ23" s="23" t="s">
         <v>22</v>
       </c>
@@ -2602,34 +2616,37 @@
         <v>22</v>
       </c>
       <c r="AL23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM23" s="27">
+      <c r="AN23" s="27">
         <v>512</v>
       </c>
-      <c r="AN23" s="27">
-        <v>256</v>
-      </c>
       <c r="AO23" s="27">
         <v>256</v>
       </c>
       <c r="AP23" s="27">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AQ23" s="27">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AR23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="27">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AS23" s="27">
-        <v>0</v>
-      </c>
       <c r="AT23" s="27">
         <v>0</v>
       </c>
+      <c r="AU23" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2665,33 +2682,30 @@
       <c r="P24">
         <v>64</v>
       </c>
-      <c r="W24" s="22">
+      <c r="X24" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="X24" s="24">
-        <v>0</v>
-      </c>
       <c r="Y24" s="24">
         <v>0</v>
       </c>
-      <c r="Z24" s="24"/>
+      <c r="Z24" s="24">
+        <v>0</v>
+      </c>
       <c r="AA24" s="24"/>
-      <c r="AB24" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB24" s="24"/>
       <c r="AC24" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AD24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE24" s="23"/>
+      <c r="AE24" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF24" s="23"/>
       <c r="AG24" s="23"/>
       <c r="AH24" s="23"/>
-      <c r="AI24" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI24" s="23"/>
       <c r="AJ24" s="23" t="s">
         <v>22</v>
       </c>
@@ -2699,22 +2713,22 @@
         <v>22</v>
       </c>
       <c r="AL24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM24" s="27">
+      <c r="AN24" s="27">
         <v>512</v>
       </c>
-      <c r="AN24" s="27">
-        <v>256</v>
-      </c>
       <c r="AO24" s="27">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AP24" s="27">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ24" s="27">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AR24" s="27">
         <v>0</v>
@@ -2723,10 +2737,13 @@
         <v>0</v>
       </c>
       <c r="AT24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="27">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>22</v>
       </c>
@@ -2763,33 +2780,30 @@
       <c r="P25">
         <v>32</v>
       </c>
-      <c r="W25" s="24">
-        <v>0</v>
-      </c>
       <c r="X25" s="24">
         <v>0</v>
       </c>
       <c r="Y25" s="24">
         <v>0</v>
       </c>
-      <c r="Z25" s="24"/>
+      <c r="Z25" s="24">
+        <v>0</v>
+      </c>
       <c r="AA25" s="24"/>
-      <c r="AB25" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB25" s="24"/>
       <c r="AC25" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AD25" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE25" s="23"/>
+      <c r="AE25" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF25" s="23"/>
       <c r="AG25" s="23"/>
       <c r="AH25" s="23"/>
-      <c r="AI25" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI25" s="23"/>
       <c r="AJ25" s="23" t="s">
         <v>22</v>
       </c>
@@ -2797,19 +2811,22 @@
         <v>22</v>
       </c>
       <c r="AL25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM25" s="23" t="s">
         <v>24</v>
-      </c>
-      <c r="AM25">
-        <v>32</v>
       </c>
       <c r="AN25">
         <v>32</v>
       </c>
-      <c r="AQ25">
+      <c r="AO25">
+        <v>32</v>
+      </c>
+      <c r="AR25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2849,33 +2866,30 @@
       <c r="P26">
         <v>32</v>
       </c>
-      <c r="W26" s="24">
-        <v>0</v>
-      </c>
       <c r="X26" s="24">
         <v>0</v>
       </c>
       <c r="Y26" s="24">
         <v>0</v>
       </c>
-      <c r="Z26" s="24"/>
+      <c r="Z26" s="24">
+        <v>0</v>
+      </c>
       <c r="AA26" s="24"/>
-      <c r="AB26" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB26" s="24"/>
       <c r="AC26" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AD26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE26" s="23"/>
+      <c r="AE26" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF26" s="23"/>
       <c r="AG26" s="23"/>
       <c r="AH26" s="23"/>
-      <c r="AI26" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI26" s="23"/>
       <c r="AJ26" s="23" t="s">
         <v>22</v>
       </c>
@@ -2883,19 +2897,22 @@
         <v>22</v>
       </c>
       <c r="AL26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM26" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM26">
-        <v>64</v>
-      </c>
       <c r="AN26">
         <v>64</v>
       </c>
-      <c r="AQ26">
+      <c r="AO26">
+        <v>64</v>
+      </c>
+      <c r="AR26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>57</v>
       </c>
@@ -2933,33 +2950,31 @@
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
-      <c r="W27" s="27">
-        <v>0</v>
-      </c>
+      <c r="W27" s="27"/>
       <c r="X27" s="27">
         <v>0</v>
       </c>
       <c r="Y27" s="27">
         <v>0</v>
       </c>
-      <c r="Z27" s="27"/>
+      <c r="Z27" s="27">
+        <v>0</v>
+      </c>
       <c r="AA27" s="27"/>
-      <c r="AB27" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB27" s="27"/>
       <c r="AC27" s="27" t="s">
         <v>22</v>
       </c>
       <c r="AD27" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AE27" s="27"/>
+      <c r="AE27" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="AF27" s="27"/>
       <c r="AG27" s="27"/>
       <c r="AH27" s="27"/>
-      <c r="AI27" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI27" s="27"/>
       <c r="AJ27" s="27" t="s">
         <v>22</v>
       </c>
@@ -2967,19 +2982,22 @@
         <v>22</v>
       </c>
       <c r="AL27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM27" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AM27" s="27">
-        <v>128</v>
-      </c>
       <c r="AN27" s="27">
         <v>128</v>
       </c>
-      <c r="AQ27">
+      <c r="AO27" s="27">
+        <v>128</v>
+      </c>
+      <c r="AR27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -3009,33 +3027,31 @@
       </c>
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
-      <c r="W28" s="24">
-        <v>0</v>
-      </c>
+      <c r="S28" s="27"/>
       <c r="X28" s="24">
         <v>0</v>
       </c>
       <c r="Y28" s="24">
         <v>0</v>
       </c>
-      <c r="Z28" s="24"/>
+      <c r="Z28" s="24">
+        <v>0</v>
+      </c>
       <c r="AA28" s="24"/>
-      <c r="AB28" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB28" s="24"/>
       <c r="AC28" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AD28" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE28" s="23"/>
+      <c r="AE28" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF28" s="23"/>
       <c r="AG28" s="23"/>
       <c r="AH28" s="23"/>
-      <c r="AI28" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI28" s="23"/>
       <c r="AJ28" s="23" t="s">
         <v>22</v>
       </c>
@@ -3043,19 +3059,22 @@
         <v>22</v>
       </c>
       <c r="AL28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM28" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM28">
-        <v>128</v>
-      </c>
       <c r="AN28">
         <v>128</v>
       </c>
-      <c r="AQ28">
+      <c r="AO28">
+        <v>128</v>
+      </c>
+      <c r="AR28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3095,33 +3114,30 @@
       <c r="P29">
         <v>32</v>
       </c>
-      <c r="W29" s="24">
-        <v>0</v>
-      </c>
       <c r="X29" s="24">
         <v>0</v>
       </c>
       <c r="Y29" s="24">
         <v>0</v>
       </c>
-      <c r="Z29" s="24"/>
+      <c r="Z29" s="24">
+        <v>0</v>
+      </c>
       <c r="AA29" s="24"/>
-      <c r="AB29" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB29" s="24"/>
       <c r="AC29" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AD29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE29" s="23"/>
+      <c r="AE29" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF29" s="23"/>
       <c r="AG29" s="23"/>
       <c r="AH29" s="23"/>
-      <c r="AI29" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI29" s="23"/>
       <c r="AJ29" s="23" t="s">
         <v>22</v>
       </c>
@@ -3129,11 +3145,11 @@
         <v>22</v>
       </c>
       <c r="AL29" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM29">
-        <v>128</v>
-      </c>
       <c r="AN29">
         <v>128</v>
       </c>
@@ -3141,13 +3157,16 @@
         <v>128</v>
       </c>
       <c r="AP29">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ29">
+        <v>64</v>
+      </c>
+      <c r="AR29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -3187,33 +3206,30 @@
       <c r="P30">
         <v>32</v>
       </c>
-      <c r="W30" s="24">
-        <v>0</v>
-      </c>
       <c r="X30" s="24">
         <v>0</v>
       </c>
       <c r="Y30" s="24">
         <v>0</v>
       </c>
-      <c r="Z30" s="24"/>
+      <c r="Z30" s="24">
+        <v>0</v>
+      </c>
       <c r="AA30" s="24"/>
-      <c r="AB30" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB30" s="24"/>
       <c r="AC30" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AD30" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE30" s="23"/>
+      <c r="AE30" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF30" s="23"/>
       <c r="AG30" s="23"/>
       <c r="AH30" s="23"/>
-      <c r="AI30" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI30" s="23"/>
       <c r="AJ30" s="23" t="s">
         <v>22</v>
       </c>
@@ -3221,11 +3237,11 @@
         <v>22</v>
       </c>
       <c r="AL30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM30">
-        <v>128</v>
-      </c>
       <c r="AN30">
         <v>128</v>
       </c>
@@ -3233,13 +3249,16 @@
         <v>128</v>
       </c>
       <c r="AP30">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ30">
+        <v>64</v>
+      </c>
+      <c r="AR30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -3279,33 +3298,30 @@
       <c r="P31">
         <v>64</v>
       </c>
-      <c r="W31" s="24">
-        <v>0</v>
-      </c>
       <c r="X31" s="24">
         <v>0</v>
       </c>
       <c r="Y31" s="24">
         <v>0</v>
       </c>
-      <c r="Z31" s="24"/>
+      <c r="Z31" s="24">
+        <v>0</v>
+      </c>
       <c r="AA31" s="24"/>
-      <c r="AB31" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB31" s="24"/>
       <c r="AC31" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AD31" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE31" s="23"/>
+      <c r="AE31" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF31" s="23"/>
       <c r="AG31" s="23"/>
       <c r="AH31" s="23"/>
-      <c r="AI31" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI31" s="23"/>
       <c r="AJ31" s="23" t="s">
         <v>22</v>
       </c>
@@ -3313,11 +3329,11 @@
         <v>22</v>
       </c>
       <c r="AL31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM31" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM31">
-        <v>128</v>
-      </c>
       <c r="AN31">
         <v>128</v>
       </c>
@@ -3325,13 +3341,16 @@
         <v>128</v>
       </c>
       <c r="AP31">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ31">
+        <v>64</v>
+      </c>
+      <c r="AR31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>29</v>
       </c>
@@ -3371,33 +3390,30 @@
       <c r="Q32">
         <v>128</v>
       </c>
-      <c r="W32" s="24">
-        <v>0</v>
-      </c>
       <c r="X32" s="24">
         <v>0</v>
       </c>
       <c r="Y32" s="24">
         <v>0</v>
       </c>
-      <c r="Z32" s="24"/>
+      <c r="Z32" s="24">
+        <v>0</v>
+      </c>
       <c r="AA32" s="24"/>
-      <c r="AB32" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB32" s="24"/>
       <c r="AC32" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AD32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE32" s="23"/>
+      <c r="AE32" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF32" s="23"/>
       <c r="AG32" s="23"/>
       <c r="AH32" s="23"/>
-      <c r="AI32" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI32" s="23"/>
       <c r="AJ32" s="23" t="s">
         <v>22</v>
       </c>
@@ -3405,11 +3421,11 @@
         <v>22</v>
       </c>
       <c r="AL32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM32">
-        <v>128</v>
-      </c>
       <c r="AN32">
         <v>128</v>
       </c>
@@ -3417,13 +3433,16 @@
         <v>128</v>
       </c>
       <c r="AP32">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ32">
+        <v>64</v>
+      </c>
+      <c r="AR32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -3471,33 +3490,30 @@
       <c r="R33">
         <v>256</v>
       </c>
-      <c r="W33" s="24">
-        <v>0</v>
-      </c>
       <c r="X33" s="24">
         <v>0</v>
       </c>
       <c r="Y33" s="24">
         <v>0</v>
       </c>
-      <c r="Z33" s="24"/>
+      <c r="Z33" s="24">
+        <v>0</v>
+      </c>
       <c r="AA33" s="24"/>
-      <c r="AB33" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AB33" s="24"/>
       <c r="AC33" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AD33" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE33" s="23"/>
+      <c r="AE33" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF33" s="23"/>
       <c r="AG33" s="23"/>
       <c r="AH33" s="23"/>
-      <c r="AI33" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI33" s="23"/>
       <c r="AJ33" s="23" t="s">
         <v>22</v>
       </c>
@@ -3505,25 +3521,28 @@
         <v>22</v>
       </c>
       <c r="AL33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM33" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM33">
-        <v>256</v>
-      </c>
       <c r="AN33">
         <v>256</v>
       </c>
       <c r="AO33">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AP33">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ33">
+        <v>64</v>
+      </c>
+      <c r="AR33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -3569,14 +3588,11 @@
       <c r="R34">
         <v>256</v>
       </c>
-      <c r="W34" s="22">
-        <v>1.0000000000000001E-5</v>
-      </c>
       <c r="X34" s="22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Y34" s="24">
-        <v>0</v>
+      <c r="Y34" s="22">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Z34" s="24">
         <v>0</v>
@@ -3584,8 +3600,8 @@
       <c r="AA34" s="24">
         <v>0</v>
       </c>
-      <c r="AB34" s="23" t="s">
-        <v>22</v>
+      <c r="AB34" s="24">
+        <v>0</v>
       </c>
       <c r="AC34" s="23" t="s">
         <v>22</v>
@@ -3593,13 +3609,13 @@
       <c r="AD34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE34" s="23"/>
+      <c r="AE34" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF34" s="23"/>
       <c r="AG34" s="23"/>
       <c r="AH34" s="23"/>
-      <c r="AI34" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI34" s="23"/>
       <c r="AJ34" s="23" t="s">
         <v>22</v>
       </c>
@@ -3607,22 +3623,22 @@
         <v>22</v>
       </c>
       <c r="AL34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM34" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>512</v>
       </c>
-      <c r="AN34">
-        <v>256</v>
-      </c>
       <c r="AO34">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AP34">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AR34">
         <v>0</v>
@@ -3630,11 +3646,14 @@
       <c r="AS34">
         <v>0</v>
       </c>
-      <c r="AT34" s="30">
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="30">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -3674,9 +3693,6 @@
       <c r="R35">
         <v>256</v>
       </c>
-      <c r="W35" s="24">
-        <v>0</v>
-      </c>
       <c r="X35" s="24">
         <v>0</v>
       </c>
@@ -3689,8 +3705,8 @@
       <c r="AA35" s="24">
         <v>0</v>
       </c>
-      <c r="AB35" s="23" t="s">
-        <v>22</v>
+      <c r="AB35" s="24">
+        <v>0</v>
       </c>
       <c r="AC35" s="23" t="s">
         <v>22</v>
@@ -3698,13 +3714,13 @@
       <c r="AD35" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE35" s="23"/>
+      <c r="AE35" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF35" s="23"/>
       <c r="AG35" s="23"/>
       <c r="AH35" s="23"/>
-      <c r="AI35" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI35" s="23"/>
       <c r="AJ35" s="23" t="s">
         <v>22</v>
       </c>
@@ -3712,22 +3728,22 @@
         <v>22</v>
       </c>
       <c r="AL35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>512</v>
       </c>
-      <c r="AN35">
-        <v>256</v>
-      </c>
       <c r="AO35">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AP35">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -3735,11 +3751,14 @@
       <c r="AS35">
         <v>0</v>
       </c>
-      <c r="AT35" s="30">
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="30">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -3783,9 +3802,6 @@
       <c r="R36">
         <v>256</v>
       </c>
-      <c r="W36" s="24">
-        <v>0</v>
-      </c>
       <c r="X36" s="24">
         <v>0</v>
       </c>
@@ -3798,8 +3814,8 @@
       <c r="AA36" s="24">
         <v>0</v>
       </c>
-      <c r="AB36" s="23" t="s">
-        <v>22</v>
+      <c r="AB36" s="24">
+        <v>0</v>
       </c>
       <c r="AC36" s="23" t="s">
         <v>22</v>
@@ -3807,13 +3823,13 @@
       <c r="AD36" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE36" s="23"/>
+      <c r="AE36" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF36" s="23"/>
       <c r="AG36" s="23"/>
       <c r="AH36" s="23"/>
-      <c r="AI36" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI36" s="23"/>
       <c r="AJ36" s="23" t="s">
         <v>22</v>
       </c>
@@ -3821,22 +3837,22 @@
         <v>22</v>
       </c>
       <c r="AL36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM36" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM36">
-        <v>512</v>
-      </c>
       <c r="AN36">
         <v>256</v>
       </c>
       <c r="AO36">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AP36">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -3847,8 +3863,11 @@
       <c r="AT36">
         <v>0</v>
       </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3899,9 +3918,6 @@
       <c r="R37">
         <v>256</v>
       </c>
-      <c r="W37" s="24">
-        <v>0</v>
-      </c>
       <c r="X37" s="24">
         <v>0</v>
       </c>
@@ -3914,8 +3930,8 @@
       <c r="AA37" s="24">
         <v>0</v>
       </c>
-      <c r="AB37" s="23" t="s">
-        <v>22</v>
+      <c r="AB37" s="24">
+        <v>0</v>
       </c>
       <c r="AC37" s="23" t="s">
         <v>22</v>
@@ -3923,13 +3939,13 @@
       <c r="AD37" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE37" s="23"/>
+      <c r="AE37" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF37" s="23"/>
       <c r="AG37" s="23"/>
       <c r="AH37" s="23"/>
-      <c r="AI37" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI37" s="23"/>
       <c r="AJ37" s="23" t="s">
         <v>22</v>
       </c>
@@ -3937,22 +3953,22 @@
         <v>22</v>
       </c>
       <c r="AL37" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM37">
-        <v>512</v>
-      </c>
       <c r="AN37">
         <v>256</v>
       </c>
       <c r="AO37">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AP37">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -3963,8 +3979,11 @@
       <c r="AT37">
         <v>0</v>
       </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -3995,9 +4014,6 @@
       <c r="R38">
         <v>256</v>
       </c>
-      <c r="W38" s="24">
-        <v>0</v>
-      </c>
       <c r="X38" s="24">
         <v>0</v>
       </c>
@@ -4010,8 +4026,8 @@
       <c r="AA38" s="24">
         <v>0</v>
       </c>
-      <c r="AB38" s="23" t="s">
-        <v>22</v>
+      <c r="AB38" s="24">
+        <v>0</v>
       </c>
       <c r="AC38" s="23" t="s">
         <v>22</v>
@@ -4019,13 +4035,13 @@
       <c r="AD38" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE38" s="23"/>
+      <c r="AE38" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF38" s="23"/>
       <c r="AG38" s="23"/>
       <c r="AH38" s="23"/>
-      <c r="AI38" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI38" s="23"/>
       <c r="AJ38" s="23" t="s">
         <v>22</v>
       </c>
@@ -4033,22 +4049,22 @@
         <v>22</v>
       </c>
       <c r="AL38" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM38" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM38">
-        <v>512</v>
-      </c>
       <c r="AN38">
         <v>256</v>
       </c>
       <c r="AO38">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AP38">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -4059,8 +4075,11 @@
       <c r="AT38">
         <v>0</v>
       </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -4097,9 +4116,6 @@
       <c r="R39">
         <v>256</v>
       </c>
-      <c r="W39" s="24">
-        <v>0</v>
-      </c>
       <c r="X39" s="24">
         <v>0</v>
       </c>
@@ -4112,8 +4128,8 @@
       <c r="AA39" s="24">
         <v>0</v>
       </c>
-      <c r="AB39" s="23" t="s">
-        <v>22</v>
+      <c r="AB39" s="24">
+        <v>0</v>
       </c>
       <c r="AC39" s="23" t="s">
         <v>22</v>
@@ -4121,13 +4137,13 @@
       <c r="AD39" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE39" s="23"/>
+      <c r="AE39" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF39" s="23"/>
       <c r="AG39" s="23"/>
       <c r="AH39" s="23"/>
-      <c r="AI39" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI39" s="23"/>
       <c r="AJ39" s="23" t="s">
         <v>22</v>
       </c>
@@ -4135,22 +4151,22 @@
         <v>22</v>
       </c>
       <c r="AL39" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM39" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM39">
-        <v>512</v>
-      </c>
       <c r="AN39">
         <v>256</v>
       </c>
       <c r="AO39">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AP39">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -4161,8 +4177,11 @@
       <c r="AT39">
         <v>0</v>
       </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:46" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -4199,9 +4218,6 @@
       <c r="R40">
         <v>256</v>
       </c>
-      <c r="W40" s="24">
-        <v>0</v>
-      </c>
       <c r="X40" s="24">
         <v>0</v>
       </c>
@@ -4214,8 +4230,8 @@
       <c r="AA40" s="24">
         <v>0</v>
       </c>
-      <c r="AB40" s="23" t="s">
-        <v>22</v>
+      <c r="AB40" s="24">
+        <v>0</v>
       </c>
       <c r="AC40" s="23" t="s">
         <v>22</v>
@@ -4223,13 +4239,13 @@
       <c r="AD40" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE40" s="23"/>
+      <c r="AE40" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF40" s="23"/>
       <c r="AG40" s="23"/>
       <c r="AH40" s="23"/>
-      <c r="AI40" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI40" s="23"/>
       <c r="AJ40" s="23" t="s">
         <v>22</v>
       </c>
@@ -4237,22 +4253,22 @@
         <v>22</v>
       </c>
       <c r="AL40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM40" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM40">
-        <v>512</v>
-      </c>
       <c r="AN40">
         <v>256</v>
       </c>
       <c r="AO40">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AP40">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -4263,8 +4279,29 @@
       <c r="AT40">
         <v>0</v>
       </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:46" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="25">
+        <v>38</v>
+      </c>
+      <c r="D41" s="25">
+        <v>128</v>
+      </c>
+      <c r="E41">
+        <v>0.05</v>
+      </c>
+      <c r="F41">
+        <v>0.96</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="34">
+        <v>90</v>
+      </c>
       <c r="N41">
         <v>64</v>
       </c>
@@ -4280,9 +4317,6 @@
       <c r="R41">
         <v>256</v>
       </c>
-      <c r="W41" s="24">
-        <v>0</v>
-      </c>
       <c r="X41" s="24">
         <v>0</v>
       </c>
@@ -4295,8 +4329,8 @@
       <c r="AA41" s="24">
         <v>0</v>
       </c>
-      <c r="AB41" s="23" t="s">
-        <v>22</v>
+      <c r="AB41" s="24">
+        <v>0</v>
       </c>
       <c r="AC41" s="23" t="s">
         <v>22</v>
@@ -4304,13 +4338,13 @@
       <c r="AD41" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AE41" s="23"/>
+      <c r="AE41" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF41" s="23"/>
       <c r="AG41" s="23"/>
       <c r="AH41" s="23"/>
-      <c r="AI41" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AI41" s="23"/>
       <c r="AJ41" s="23" t="s">
         <v>22</v>
       </c>
@@ -4318,38 +4352,125 @@
         <v>22</v>
       </c>
       <c r="AL41" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM41" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AM41">
+      <c r="AN41">
+        <v>256</v>
+      </c>
+      <c r="AO41">
+        <v>256</v>
+      </c>
+      <c r="AP41">
+        <v>128</v>
+      </c>
+      <c r="AQ41">
+        <v>64</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>64</v>
+      </c>
+      <c r="O42">
+        <v>64</v>
+      </c>
+      <c r="P42">
+        <v>128</v>
+      </c>
+      <c r="Q42">
+        <v>128</v>
+      </c>
+      <c r="R42">
+        <v>256</v>
+      </c>
+      <c r="S42">
+        <v>256</v>
+      </c>
+      <c r="X42" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD42" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE42" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AJ42" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK42" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL42" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM42" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN42">
         <v>512</v>
       </c>
-      <c r="AN41">
-        <v>256</v>
-      </c>
-      <c r="AO41">
-        <v>128</v>
-      </c>
-      <c r="AP41">
-        <v>64</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>0</v>
-      </c>
-      <c r="AT41">
+      <c r="AO42">
+        <v>256</v>
+      </c>
+      <c r="AP42">
+        <v>256</v>
+      </c>
+      <c r="AQ42">
+        <v>128</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:X1"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="C1:Y1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
